--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6927,28 +6927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1651.812562994315</v>
+        <v>1735.128436630961</v>
       </c>
       <c r="AB2" t="n">
-        <v>2260.082821515994</v>
+        <v>2374.079275462585</v>
       </c>
       <c r="AC2" t="n">
-        <v>2044.383689076669</v>
+        <v>2147.500481453626</v>
       </c>
       <c r="AD2" t="n">
-        <v>1651812.562994315</v>
+        <v>1735128.436630961</v>
       </c>
       <c r="AE2" t="n">
-        <v>2260082.821515994</v>
+        <v>2374079.275462586</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289764223575186e-06</v>
+        <v>2.180410413154918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.70972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2044383.68907667</v>
+        <v>2147500.481453626</v>
       </c>
     </row>
     <row r="3">
@@ -7033,28 +7033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>582.5361184923383</v>
+        <v>624.1088039646412</v>
       </c>
       <c r="AB3" t="n">
-        <v>797.0516170009737</v>
+        <v>853.93319932162</v>
       </c>
       <c r="AC3" t="n">
-        <v>720.9821293433704</v>
+        <v>772.4350132811365</v>
       </c>
       <c r="AD3" t="n">
-        <v>582536.1184923383</v>
+        <v>624108.8039646412</v>
       </c>
       <c r="AE3" t="n">
-        <v>797051.6170009737</v>
+        <v>853933.19932162</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412636662084202e-06</v>
+        <v>4.078681983119108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.398611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>720982.1293433704</v>
+        <v>772435.0132811365</v>
       </c>
     </row>
     <row r="4">
@@ -7139,28 +7139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.7866520609224</v>
+        <v>489.0301941832159</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.3638934714731</v>
+        <v>669.1126861709932</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.5846025858009</v>
+        <v>605.2535105083862</v>
       </c>
       <c r="AD4" t="n">
-        <v>457786.6520609225</v>
+        <v>489030.194183216</v>
       </c>
       <c r="AE4" t="n">
-        <v>626363.8934714731</v>
+        <v>669112.6861709933</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.824614285359433e-06</v>
+        <v>4.775150596030487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.173611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>566584.6025858009</v>
+        <v>605253.5105083862</v>
       </c>
     </row>
     <row r="5">
@@ -7245,28 +7245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.7719673372875</v>
+        <v>445.3445633010393</v>
       </c>
       <c r="AB5" t="n">
-        <v>552.4586188728869</v>
+        <v>609.3400787239848</v>
       </c>
       <c r="AC5" t="n">
-        <v>499.7327436681992</v>
+        <v>551.1855168247387</v>
       </c>
       <c r="AD5" t="n">
-        <v>403771.9673372876</v>
+        <v>445344.5633010393</v>
       </c>
       <c r="AE5" t="n">
-        <v>552458.6188728869</v>
+        <v>609340.0787239848</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.038918509364857e-06</v>
+        <v>5.137442519673126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.668055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>499732.7436681992</v>
+        <v>551185.5168247387</v>
       </c>
     </row>
     <row r="6">
@@ -7351,28 +7351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>379.926819099982</v>
+        <v>411.0850203677038</v>
       </c>
       <c r="AB6" t="n">
-        <v>519.8326350809097</v>
+        <v>562.4646606582321</v>
       </c>
       <c r="AC6" t="n">
-        <v>470.2205379784725</v>
+        <v>508.7838228691189</v>
       </c>
       <c r="AD6" t="n">
-        <v>379926.819099982</v>
+        <v>411085.0203677038</v>
       </c>
       <c r="AE6" t="n">
-        <v>519832.6350809096</v>
+        <v>562464.6606582321</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.174299258089862e-06</v>
+        <v>5.366310392471199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.383333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>470220.5379784725</v>
+        <v>508783.8228691189</v>
       </c>
     </row>
     <row r="7">
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.5777110604204</v>
+        <v>395.7359123281423</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.831308306326</v>
+        <v>541.4633338836485</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.2235483557079</v>
+        <v>489.7868332463544</v>
       </c>
       <c r="AD7" t="n">
-        <v>364577.7110604204</v>
+        <v>395735.9123281423</v>
       </c>
       <c r="AE7" t="n">
-        <v>498831.308306326</v>
+        <v>541463.3338836485</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.26781117612082e-06</v>
+        <v>5.524396929608662e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>451223.5483557078</v>
+        <v>489786.8332463544</v>
       </c>
     </row>
     <row r="8">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>354.7128661703553</v>
+        <v>385.8710674380773</v>
       </c>
       <c r="AB8" t="n">
-        <v>485.3337923214978</v>
+        <v>527.9658178988203</v>
       </c>
       <c r="AC8" t="n">
-        <v>439.0142163525889</v>
+        <v>477.5775012432354</v>
       </c>
       <c r="AD8" t="n">
-        <v>354712.8661703552</v>
+        <v>385871.0674380772</v>
       </c>
       <c r="AE8" t="n">
-        <v>485333.7923214977</v>
+        <v>527965.8178988203</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.329520288955602e-06</v>
+        <v>5.628719246627611e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.084722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>439014.2163525889</v>
+        <v>477577.5012432354</v>
       </c>
     </row>
     <row r="9">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>336.3617214590797</v>
+        <v>377.8489765682597</v>
       </c>
       <c r="AB9" t="n">
-        <v>460.2249465321641</v>
+        <v>516.9896392610644</v>
       </c>
       <c r="AC9" t="n">
-        <v>416.3017235649029</v>
+        <v>467.6488736895036</v>
       </c>
       <c r="AD9" t="n">
-        <v>336361.7214590797</v>
+        <v>377848.9765682596</v>
       </c>
       <c r="AE9" t="n">
-        <v>460224.9465321641</v>
+        <v>516989.6392610645</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.3808716074375e-06</v>
+        <v>5.715531198378603e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.993055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>416301.723564903</v>
+        <v>467648.8736895036</v>
       </c>
     </row>
     <row r="10">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>329.3382593662677</v>
+        <v>360.5817119800101</v>
       </c>
       <c r="AB10" t="n">
-        <v>450.6151358434997</v>
+        <v>493.3638060734713</v>
       </c>
       <c r="AC10" t="n">
-        <v>407.6090597209106</v>
+        <v>446.2778568622693</v>
       </c>
       <c r="AD10" t="n">
-        <v>329338.2593662677</v>
+        <v>360581.7119800102</v>
       </c>
       <c r="AE10" t="n">
-        <v>450615.1358434997</v>
+        <v>493363.8060734713</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.424345166834108e-06</v>
+        <v>5.789025407531433e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>407609.0597209106</v>
+        <v>446277.8568622693</v>
       </c>
     </row>
     <row r="11">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>324.3066478462325</v>
+        <v>355.5501004599749</v>
       </c>
       <c r="AB11" t="n">
-        <v>443.7306629827536</v>
+        <v>486.4793332127255</v>
       </c>
       <c r="AC11" t="n">
-        <v>401.3816312875759</v>
+        <v>440.0504284289346</v>
       </c>
       <c r="AD11" t="n">
-        <v>324306.6478462325</v>
+        <v>355550.100459975</v>
       </c>
       <c r="AE11" t="n">
-        <v>443730.6629827536</v>
+        <v>486479.3332127255</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.456439740885294e-06</v>
+        <v>5.843282877375804e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.862500000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>401381.6312875759</v>
+        <v>440050.4284289346</v>
       </c>
     </row>
     <row r="12">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>320.4907161579558</v>
+        <v>351.7341687716983</v>
       </c>
       <c r="AB12" t="n">
-        <v>438.5095368998287</v>
+        <v>481.2582071298004</v>
       </c>
       <c r="AC12" t="n">
-        <v>396.6588021501087</v>
+        <v>435.3275992914675</v>
       </c>
       <c r="AD12" t="n">
-        <v>320490.7161579558</v>
+        <v>351734.1687716983</v>
       </c>
       <c r="AE12" t="n">
-        <v>438509.5368998287</v>
+        <v>481258.2071298005</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.477447098446071e-06</v>
+        <v>5.878796857637574e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.826388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>396658.8021501087</v>
+        <v>435327.5992914675</v>
       </c>
     </row>
     <row r="13">
@@ -8093,28 +8093,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>316.5029737073315</v>
+        <v>347.7464263210739</v>
       </c>
       <c r="AB13" t="n">
-        <v>433.053331752104</v>
+        <v>475.8020019820758</v>
       </c>
       <c r="AC13" t="n">
-        <v>391.7233295638508</v>
+        <v>430.3921267052095</v>
       </c>
       <c r="AD13" t="n">
-        <v>316502.9737073315</v>
+        <v>347746.4263210739</v>
       </c>
       <c r="AE13" t="n">
-        <v>433053.331752104</v>
+        <v>475802.0019820757</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.499913300281901e-06</v>
+        <v>5.916777086528633e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.788888888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>391723.3295638508</v>
+        <v>430392.1267052095</v>
       </c>
     </row>
     <row r="14">
@@ -8199,28 +8199,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>312.9281941083559</v>
+        <v>344.1716467220983</v>
       </c>
       <c r="AB14" t="n">
-        <v>428.1621605966401</v>
+        <v>470.910830826612</v>
       </c>
       <c r="AC14" t="n">
-        <v>387.2989649186627</v>
+        <v>425.9677620600214</v>
       </c>
       <c r="AD14" t="n">
-        <v>312928.1941083558</v>
+        <v>344171.6467220983</v>
       </c>
       <c r="AE14" t="n">
-        <v>428162.1605966401</v>
+        <v>470910.830826612</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.52179596440771e-06</v>
+        <v>5.953770815967978e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.752777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>387298.9649186627</v>
+        <v>425967.7620600213</v>
       </c>
     </row>
     <row r="15">
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>310.6066917906734</v>
+        <v>341.8501444044159</v>
       </c>
       <c r="AB15" t="n">
-        <v>424.985778708133</v>
+        <v>467.7344489381047</v>
       </c>
       <c r="AC15" t="n">
-        <v>384.4257324595146</v>
+        <v>423.0945296008733</v>
       </c>
       <c r="AD15" t="n">
-        <v>310606.6917906734</v>
+        <v>341850.1444044159</v>
       </c>
       <c r="AE15" t="n">
-        <v>424985.778708133</v>
+        <v>467734.4489381047</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.533029065325626e-06</v>
+        <v>5.972760930413507e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.734722222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>384425.7324595146</v>
+        <v>423094.5296008734</v>
       </c>
     </row>
     <row r="16">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>307.198478992766</v>
+        <v>338.4419316065084</v>
       </c>
       <c r="AB16" t="n">
-        <v>420.3225115982992</v>
+        <v>463.0711818282709</v>
       </c>
       <c r="AC16" t="n">
-        <v>380.2075210177069</v>
+        <v>418.8763181590656</v>
       </c>
       <c r="AD16" t="n">
-        <v>307198.478992766</v>
+        <v>338441.9316065084</v>
       </c>
       <c r="AE16" t="n">
-        <v>420322.5115982993</v>
+        <v>463071.1818282709</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.549514005633735e-06</v>
+        <v>6.00062953992448e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.708333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>380207.5210177069</v>
+        <v>418876.3181590657</v>
       </c>
     </row>
     <row r="17">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>304.3115768450037</v>
+        <v>335.5550294587462</v>
       </c>
       <c r="AB17" t="n">
-        <v>416.3725247185969</v>
+        <v>459.1211949485686</v>
       </c>
       <c r="AC17" t="n">
-        <v>376.634515341962</v>
+        <v>415.3033124833207</v>
       </c>
       <c r="AD17" t="n">
-        <v>304311.5768450037</v>
+        <v>335555.0294587462</v>
       </c>
       <c r="AE17" t="n">
-        <v>416372.5247185969</v>
+        <v>459121.1949485686</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.565707177086834e-06</v>
+        <v>6.028004899709593e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.681944444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>376634.515341962</v>
+        <v>415303.3124833207</v>
       </c>
     </row>
     <row r="18">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>302.527952326462</v>
+        <v>333.7714049402044</v>
       </c>
       <c r="AB18" t="n">
-        <v>413.9320909643678</v>
+        <v>456.6807611943396</v>
       </c>
       <c r="AC18" t="n">
-        <v>374.4269931600662</v>
+        <v>413.0957903014249</v>
       </c>
       <c r="AD18" t="n">
-        <v>302527.952326462</v>
+        <v>333771.4049402045</v>
       </c>
       <c r="AE18" t="n">
-        <v>413932.0909643678</v>
+        <v>456680.7611943396</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.570813132049523e-06</v>
+        <v>6.036636769912108e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.673611111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>374426.9931600662</v>
+        <v>413095.7903014249</v>
       </c>
     </row>
     <row r="19">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>299.0788599308348</v>
+        <v>330.3223125445773</v>
       </c>
       <c r="AB19" t="n">
-        <v>409.2128905854535</v>
+        <v>451.9615608154252</v>
       </c>
       <c r="AC19" t="n">
-        <v>370.1581866418761</v>
+        <v>408.8269837832348</v>
       </c>
       <c r="AD19" t="n">
-        <v>299078.8599308348</v>
+        <v>330322.3125445773</v>
       </c>
       <c r="AE19" t="n">
-        <v>409212.8905854535</v>
+        <v>451961.5608154252</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.588173378922665e-06</v>
+        <v>6.065985128600653e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.647222222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>370158.1866418761</v>
+        <v>408826.9837832348</v>
       </c>
     </row>
     <row r="20">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>297.1650751235386</v>
+        <v>328.4085277372811</v>
       </c>
       <c r="AB20" t="n">
-        <v>406.5943657818837</v>
+        <v>449.3430360118555</v>
       </c>
       <c r="AC20" t="n">
-        <v>367.7895701704364</v>
+        <v>406.4583673117953</v>
       </c>
       <c r="AD20" t="n">
-        <v>297165.0751235386</v>
+        <v>328408.5277372811</v>
       </c>
       <c r="AE20" t="n">
-        <v>406594.3657818837</v>
+        <v>449343.0360118555</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.595467600297934e-06</v>
+        <v>6.078316371747101e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.634722222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>367789.5701704365</v>
+        <v>406458.3673117952</v>
       </c>
     </row>
     <row r="21">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>295.5015799783188</v>
+        <v>326.7450325920612</v>
       </c>
       <c r="AB21" t="n">
-        <v>404.3182983359677</v>
+        <v>447.0669685659395</v>
       </c>
       <c r="AC21" t="n">
-        <v>365.7307274070779</v>
+        <v>404.3995245484367</v>
       </c>
       <c r="AD21" t="n">
-        <v>295501.5799783188</v>
+        <v>326745.0325920613</v>
       </c>
       <c r="AE21" t="n">
-        <v>404318.2983359677</v>
+        <v>447066.9685659395</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.600573555260623e-06</v>
+        <v>6.086948241949616e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.627777777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>365730.7274070779</v>
+        <v>404399.5245484367</v>
       </c>
     </row>
     <row r="22">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>292.9543375665289</v>
+        <v>324.1977901802714</v>
       </c>
       <c r="AB22" t="n">
-        <v>400.8330488917528</v>
+        <v>443.5817191217243</v>
       </c>
       <c r="AC22" t="n">
-        <v>362.5781052782405</v>
+        <v>401.2469024195991</v>
       </c>
       <c r="AD22" t="n">
-        <v>292954.3375665289</v>
+        <v>324197.7901802714</v>
       </c>
       <c r="AE22" t="n">
-        <v>400833.0488917527</v>
+        <v>443581.7191217244</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.610639580758495e-06</v>
+        <v>6.103965357491714e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.611111111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>362578.1052782405</v>
+        <v>401246.9024195991</v>
       </c>
     </row>
     <row r="23">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>290.5921710417689</v>
+        <v>321.8356236555115</v>
       </c>
       <c r="AB23" t="n">
-        <v>397.601028441144</v>
+        <v>440.3496986711158</v>
       </c>
       <c r="AC23" t="n">
-        <v>359.6545443232687</v>
+        <v>398.3233414646275</v>
       </c>
       <c r="AD23" t="n">
-        <v>290592.171041769</v>
+        <v>321835.6236555115</v>
       </c>
       <c r="AE23" t="n">
-        <v>397601.028441144</v>
+        <v>440349.6986711158</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.617350264423743e-06</v>
+        <v>6.115310101186445e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.601388888888888</v>
       </c>
       <c r="AH23" t="n">
-        <v>359654.5443232687</v>
+        <v>398323.3414646275</v>
       </c>
     </row>
     <row r="24">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>289.8353072352604</v>
+        <v>321.0787598490028</v>
       </c>
       <c r="AB24" t="n">
-        <v>396.5654539906044</v>
+        <v>439.314124220576</v>
       </c>
       <c r="AC24" t="n">
-        <v>358.7178036448506</v>
+        <v>397.3866007862093</v>
       </c>
       <c r="AD24" t="n">
-        <v>289835.3072352604</v>
+        <v>321078.7598490028</v>
       </c>
       <c r="AE24" t="n">
-        <v>396565.4539906044</v>
+        <v>439314.124220576</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.615745535721184e-06</v>
+        <v>6.112597227694226e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>358717.8036448506</v>
+        <v>397386.6007862093</v>
       </c>
     </row>
     <row r="25">
@@ -9365,28 +9365,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>288.1851367799339</v>
+        <v>319.4285893936764</v>
       </c>
       <c r="AB25" t="n">
-        <v>394.3076179732443</v>
+        <v>437.0562882032159</v>
       </c>
       <c r="AC25" t="n">
-        <v>356.6754523280947</v>
+        <v>395.3442494694534</v>
       </c>
       <c r="AD25" t="n">
-        <v>288185.1367799339</v>
+        <v>319428.5893936764</v>
       </c>
       <c r="AE25" t="n">
-        <v>394307.6179732443</v>
+        <v>437056.2882032159</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.623623294806476e-06</v>
+        <v>6.125914970292391e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.591666666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>356675.4523280946</v>
+        <v>395344.2494694534</v>
       </c>
     </row>
     <row r="26">
@@ -9471,28 +9471,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>285.5611217841914</v>
+        <v>316.8045743979339</v>
       </c>
       <c r="AB26" t="n">
-        <v>390.7173248926978</v>
+        <v>433.4659951226696</v>
       </c>
       <c r="AC26" t="n">
-        <v>353.4278117801476</v>
+        <v>392.0966089215064</v>
       </c>
       <c r="AD26" t="n">
-        <v>285561.1217841914</v>
+        <v>316804.5743979339</v>
       </c>
       <c r="AE26" t="n">
-        <v>390717.3248926979</v>
+        <v>433465.9951226696</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.633251667021831e-06</v>
+        <v>6.142192211245701e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.576388888888889</v>
       </c>
       <c r="AH26" t="n">
-        <v>353427.8117801476</v>
+        <v>392096.6089215064</v>
       </c>
     </row>
     <row r="27">
@@ -9577,28 +9577,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>284.947550872067</v>
+        <v>316.1910034858094</v>
       </c>
       <c r="AB27" t="n">
-        <v>389.877810101891</v>
+        <v>432.6264803318628</v>
       </c>
       <c r="AC27" t="n">
-        <v>352.668419102709</v>
+        <v>391.3372162440677</v>
       </c>
       <c r="AD27" t="n">
-        <v>284947.550872067</v>
+        <v>316191.0034858094</v>
       </c>
       <c r="AE27" t="n">
-        <v>389877.8101018911</v>
+        <v>432626.4803318628</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.630917516181745e-06</v>
+        <v>6.138246213438838e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>5.580555555555556</v>
       </c>
       <c r="AH27" t="n">
-        <v>352668.419102709</v>
+        <v>391337.2162440677</v>
       </c>
     </row>
     <row r="28">
@@ -9683,28 +9683,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>283.2343964132486</v>
+        <v>314.4778490269912</v>
       </c>
       <c r="AB28" t="n">
-        <v>387.5337965922952</v>
+        <v>430.2824668222669</v>
       </c>
       <c r="AC28" t="n">
-        <v>350.5481149526254</v>
+        <v>389.2169120939841</v>
       </c>
       <c r="AD28" t="n">
-        <v>283234.3964132487</v>
+        <v>314477.8490269912</v>
       </c>
       <c r="AE28" t="n">
-        <v>387533.7965922952</v>
+        <v>430282.4668222669</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.639378812977058e-06</v>
+        <v>6.152550455488717e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5.568055555555556</v>
       </c>
       <c r="AH28" t="n">
-        <v>350548.1149526254</v>
+        <v>389216.9120939841</v>
       </c>
     </row>
     <row r="29">
@@ -9789,28 +9789,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>284.1505071244322</v>
+        <v>315.3939597381747</v>
       </c>
       <c r="AB29" t="n">
-        <v>388.7872596832887</v>
+        <v>431.5359299132602</v>
       </c>
       <c r="AC29" t="n">
-        <v>351.6819492854609</v>
+        <v>390.3507464268196</v>
       </c>
       <c r="AD29" t="n">
-        <v>284150.5071244322</v>
+        <v>315393.9597381747</v>
       </c>
       <c r="AE29" t="n">
-        <v>388787.2596832886</v>
+        <v>431535.9299132603</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.639524697404563e-06</v>
+        <v>6.152797080351647e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="AH29" t="n">
-        <v>351681.9492854609</v>
+        <v>390350.7464268196</v>
       </c>
     </row>
   </sheetData>
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1016.715642786598</v>
+        <v>1077.173798503738</v>
       </c>
       <c r="AB2" t="n">
-        <v>1391.115196789124</v>
+        <v>1473.836712666902</v>
       </c>
       <c r="AC2" t="n">
-        <v>1258.34911485001</v>
+        <v>1333.17580535279</v>
       </c>
       <c r="AD2" t="n">
-        <v>1016715.642786598</v>
+        <v>1077173.798503738</v>
       </c>
       <c r="AE2" t="n">
-        <v>1391115.196789124</v>
+        <v>1473836.712666902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695232679334771e-06</v>
+        <v>2.935788709663428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1258349.11485001</v>
+        <v>1333175.80535279</v>
       </c>
     </row>
     <row r="3">
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>462.0455386256493</v>
+        <v>502.4078100010898</v>
       </c>
       <c r="AB3" t="n">
-        <v>632.1910899581471</v>
+        <v>687.4165303117654</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.8556596183083</v>
+        <v>621.8104614539695</v>
       </c>
       <c r="AD3" t="n">
-        <v>462045.5386256493</v>
+        <v>502407.8100010898</v>
       </c>
       <c r="AE3" t="n">
-        <v>632191.0899581471</v>
+        <v>687416.5303117654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72477753275076e-06</v>
+        <v>4.718745228609739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.693055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>571855.6596183083</v>
+        <v>621810.4614539696</v>
       </c>
     </row>
     <row r="4">
@@ -10298,28 +10298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.6332187927749</v>
+        <v>416.9101493136438</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.3261858371984</v>
+        <v>570.4348590686191</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.1441779257398</v>
+        <v>515.9933567294622</v>
       </c>
       <c r="AD4" t="n">
-        <v>376633.2187927749</v>
+        <v>416910.1493136438</v>
       </c>
       <c r="AE4" t="n">
-        <v>515326.1858371985</v>
+        <v>570434.8590686191</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.092558360627448e-06</v>
+        <v>5.355664759051275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.777777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>466144.1779257398</v>
+        <v>515993.3567294623</v>
       </c>
     </row>
     <row r="5">
@@ -10404,28 +10404,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.4188359982262</v>
+        <v>375.605288183786</v>
       </c>
       <c r="AB5" t="n">
-        <v>472.6172902163175</v>
+        <v>513.9197258288818</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.5113593606043</v>
+        <v>464.871948486638</v>
       </c>
       <c r="AD5" t="n">
-        <v>345418.8359982262</v>
+        <v>375605.288183786</v>
       </c>
       <c r="AE5" t="n">
-        <v>472617.2902163175</v>
+        <v>513919.7258288818</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.286182817814888e-06</v>
+        <v>5.690981852837279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.377777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>427511.3593606043</v>
+        <v>464871.948486638</v>
       </c>
     </row>
     <row r="6">
@@ -10510,28 +10510,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>327.3864159534103</v>
+        <v>357.5728681389701</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.9445375767741</v>
+        <v>489.2469731893385</v>
       </c>
       <c r="AC6" t="n">
-        <v>405.193339604553</v>
+        <v>442.5539287305868</v>
       </c>
       <c r="AD6" t="n">
-        <v>327386.4159534103</v>
+        <v>357572.8681389701</v>
       </c>
       <c r="AE6" t="n">
-        <v>447944.5375767741</v>
+        <v>489246.9731893385</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.409782529768522e-06</v>
+        <v>5.905030722526084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.147222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>405193.3396045531</v>
+        <v>442553.9287305868</v>
       </c>
     </row>
     <row r="7">
@@ -10616,28 +10616,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>315.8487949430398</v>
+        <v>346.0352471285997</v>
       </c>
       <c r="AB7" t="n">
-        <v>432.1582555064698</v>
+        <v>473.4606911190342</v>
       </c>
       <c r="AC7" t="n">
-        <v>390.9136781388526</v>
+        <v>428.2742672648863</v>
       </c>
       <c r="AD7" t="n">
-        <v>315848.7949430398</v>
+        <v>346035.2471285997</v>
       </c>
       <c r="AE7" t="n">
-        <v>432158.2555064698</v>
+        <v>473460.6911190342</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.490975014543926e-06</v>
+        <v>6.045639137535336e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.004166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>390913.6781388526</v>
+        <v>428274.2672648863</v>
       </c>
     </row>
     <row r="8">
@@ -10722,28 +10722,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>297.5219827059362</v>
+        <v>327.7936862375166</v>
       </c>
       <c r="AB8" t="n">
-        <v>407.0827024817715</v>
+        <v>448.5017827469852</v>
       </c>
       <c r="AC8" t="n">
-        <v>368.2313007010718</v>
+        <v>405.6974020778177</v>
       </c>
       <c r="AD8" t="n">
-        <v>297521.9827059362</v>
+        <v>327793.6862375166</v>
       </c>
       <c r="AE8" t="n">
-        <v>407082.7024817715</v>
+        <v>448501.7827469851</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.548473781643236e-06</v>
+        <v>6.145214985339285e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.906944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>368231.3007010718</v>
+        <v>405697.4020778178</v>
       </c>
     </row>
     <row r="9">
@@ -10828,28 +10828,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>291.8665978478758</v>
+        <v>322.1383013794563</v>
       </c>
       <c r="AB9" t="n">
-        <v>399.344755421002</v>
+        <v>440.7638356862157</v>
       </c>
       <c r="AC9" t="n">
-        <v>361.2318524475052</v>
+        <v>398.6979538242513</v>
       </c>
       <c r="AD9" t="n">
-        <v>291866.5978478758</v>
+        <v>322138.3013794562</v>
       </c>
       <c r="AE9" t="n">
-        <v>399344.755421002</v>
+        <v>440763.8356862157</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.586202631445932e-06</v>
+        <v>6.210553468150275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.844444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>361231.8524475052</v>
+        <v>398697.9538242512</v>
       </c>
     </row>
     <row r="10">
@@ -10934,28 +10934,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>286.4828125046174</v>
+        <v>316.7545160361978</v>
       </c>
       <c r="AB10" t="n">
-        <v>391.9784227985095</v>
+        <v>433.3975030637232</v>
       </c>
       <c r="AC10" t="n">
-        <v>354.5685522717906</v>
+        <v>392.0346536485367</v>
       </c>
       <c r="AD10" t="n">
-        <v>286482.8125046174</v>
+        <v>316754.5160361978</v>
       </c>
       <c r="AE10" t="n">
-        <v>391978.4227985095</v>
+        <v>433397.5030637232</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.62030951166757e-06</v>
+        <v>6.269619456611411e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.790277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>354568.5522717906</v>
+        <v>392034.6536485367</v>
       </c>
     </row>
     <row r="11">
@@ -11040,28 +11040,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>281.9568942533734</v>
+        <v>312.2285977849538</v>
       </c>
       <c r="AB11" t="n">
-        <v>385.7858617777362</v>
+        <v>427.2049420429499</v>
       </c>
       <c r="AC11" t="n">
-        <v>348.967000583526</v>
+        <v>386.4331019602719</v>
       </c>
       <c r="AD11" t="n">
-        <v>281956.8942533734</v>
+        <v>312228.5977849538</v>
       </c>
       <c r="AE11" t="n">
-        <v>385785.8617777362</v>
+        <v>427204.9420429499</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.647927029723144e-06</v>
+        <v>6.317447226029056e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.745833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>348967.000583526</v>
+        <v>386433.1019602719</v>
       </c>
     </row>
     <row r="12">
@@ -11146,28 +11146,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>277.3350057418223</v>
+        <v>307.6067092734027</v>
       </c>
       <c r="AB12" t="n">
-        <v>379.4619900129016</v>
+        <v>420.8810702781153</v>
       </c>
       <c r="AC12" t="n">
-        <v>343.2466702643173</v>
+        <v>380.7127716410635</v>
       </c>
       <c r="AD12" t="n">
-        <v>277335.0057418223</v>
+        <v>307606.7092734027</v>
       </c>
       <c r="AE12" t="n">
-        <v>379461.9900129016</v>
+        <v>420881.0702781153</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.676148209375562e-06</v>
+        <v>6.366320411171677e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.701388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>343246.6702643174</v>
+        <v>380712.7716410634</v>
       </c>
     </row>
     <row r="13">
@@ -11252,28 +11252,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>274.3129918472412</v>
+        <v>304.5846953788216</v>
       </c>
       <c r="AB13" t="n">
-        <v>375.3271372804923</v>
+        <v>416.7462175457059</v>
       </c>
       <c r="AC13" t="n">
-        <v>339.5064420733868</v>
+        <v>376.9725434501328</v>
       </c>
       <c r="AD13" t="n">
-        <v>274312.9918472412</v>
+        <v>304584.6953788216</v>
       </c>
       <c r="AE13" t="n">
-        <v>375327.1372804922</v>
+        <v>416746.2175457058</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.689881510703743e-06</v>
+        <v>6.390103618914877e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.680555555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>339506.4420733869</v>
+        <v>376972.5434501328</v>
       </c>
     </row>
     <row r="14">
@@ -11358,28 +11358,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>270.31706371435</v>
+        <v>300.5887672459304</v>
       </c>
       <c r="AB14" t="n">
-        <v>369.8597321211629</v>
+        <v>411.2788123863766</v>
       </c>
       <c r="AC14" t="n">
-        <v>334.5608383889126</v>
+        <v>372.0269397656587</v>
       </c>
       <c r="AD14" t="n">
-        <v>270317.0637143499</v>
+        <v>300588.7672459304</v>
       </c>
       <c r="AE14" t="n">
-        <v>369859.7321211629</v>
+        <v>411278.8123863766</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.710858751194042e-06</v>
+        <v>6.426431815357788e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.648611111111112</v>
       </c>
       <c r="AH14" t="n">
-        <v>334560.8383889126</v>
+        <v>372026.9397656586</v>
       </c>
     </row>
     <row r="15">
@@ -11464,28 +11464,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>267.280622204231</v>
+        <v>297.5523257358114</v>
       </c>
       <c r="AB15" t="n">
-        <v>365.7051388886729</v>
+        <v>407.1242191538867</v>
       </c>
       <c r="AC15" t="n">
-        <v>330.8027537035233</v>
+        <v>368.2688550802693</v>
       </c>
       <c r="AD15" t="n">
-        <v>267280.6222042309</v>
+        <v>297552.3257358114</v>
       </c>
       <c r="AE15" t="n">
-        <v>365705.1388886729</v>
+        <v>407124.2191538867</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.725195714119067e-06</v>
+        <v>6.451260438825965e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.626388888888888</v>
       </c>
       <c r="AH15" t="n">
-        <v>330802.7537035233</v>
+        <v>368268.8550802693</v>
       </c>
     </row>
     <row r="16">
@@ -11570,28 +11570,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>264.8043013612592</v>
+        <v>295.0760048928396</v>
       </c>
       <c r="AB16" t="n">
-        <v>362.3169274637538</v>
+        <v>403.7360077289674</v>
       </c>
       <c r="AC16" t="n">
-        <v>327.7379084216137</v>
+        <v>365.2040097983598</v>
       </c>
       <c r="AD16" t="n">
-        <v>264804.3013612592</v>
+        <v>295076.0048928396</v>
       </c>
       <c r="AE16" t="n">
-        <v>362316.9274637537</v>
+        <v>403736.0077289673</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.732288737881974e-06</v>
+        <v>6.463544073594431e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.616666666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>327737.9084216137</v>
+        <v>365204.0097983598</v>
       </c>
     </row>
     <row r="17">
@@ -11676,28 +11676,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>261.2939448457015</v>
+        <v>291.5656483772819</v>
       </c>
       <c r="AB17" t="n">
-        <v>357.5139028131681</v>
+        <v>398.9329830783818</v>
       </c>
       <c r="AC17" t="n">
-        <v>323.3932777025926</v>
+        <v>360.8593790793386</v>
       </c>
       <c r="AD17" t="n">
-        <v>261293.9448457015</v>
+        <v>291565.6483772819</v>
       </c>
       <c r="AE17" t="n">
-        <v>357513.9028131681</v>
+        <v>398932.9830783818</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.74873851639595e-06</v>
+        <v>6.492031652100023e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.591666666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>323393.2777025926</v>
+        <v>360859.3790793386</v>
       </c>
     </row>
     <row r="18">
@@ -11782,28 +11782,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>258.9269782307676</v>
+        <v>289.1986817623479</v>
       </c>
       <c r="AB18" t="n">
-        <v>354.2753146674182</v>
+        <v>395.694394932632</v>
       </c>
       <c r="AC18" t="n">
-        <v>320.4637758640861</v>
+        <v>357.929877240832</v>
       </c>
       <c r="AD18" t="n">
-        <v>258926.9782307676</v>
+        <v>289198.6817623479</v>
       </c>
       <c r="AE18" t="n">
-        <v>354275.3146674182</v>
+        <v>395694.3949326319</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.755227878562014e-06</v>
+        <v>6.503269871143513e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.581944444444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>320463.7758640861</v>
+        <v>357929.877240832</v>
       </c>
     </row>
     <row r="19">
@@ -11888,28 +11888,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>256.0173476604619</v>
+        <v>286.2890511920455</v>
       </c>
       <c r="AB19" t="n">
-        <v>350.2942297571191</v>
+        <v>391.7133100225028</v>
       </c>
       <c r="AC19" t="n">
-        <v>316.8626401102436</v>
+        <v>354.3287414870379</v>
       </c>
       <c r="AD19" t="n">
-        <v>256017.3476604619</v>
+        <v>286289.0511920454</v>
       </c>
       <c r="AE19" t="n">
-        <v>350294.2297571191</v>
+        <v>391713.3100225027</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.76413188711545e-06</v>
+        <v>6.518689753086908e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.568055555555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>316862.6401102436</v>
+        <v>354328.7414870379</v>
       </c>
     </row>
     <row r="20">
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>255.3129750641044</v>
+        <v>285.5846785956879</v>
       </c>
       <c r="AB20" t="n">
-        <v>349.3304760960574</v>
+        <v>390.7495563614406</v>
       </c>
       <c r="AC20" t="n">
-        <v>315.9908657459565</v>
+        <v>353.4569671227507</v>
       </c>
       <c r="AD20" t="n">
-        <v>255312.9750641044</v>
+        <v>285584.678595688</v>
       </c>
       <c r="AE20" t="n">
-        <v>349330.4760960574</v>
+        <v>390749.5563614406</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.768810264490985e-06</v>
+        <v>6.52679172495547e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>315990.8657459565</v>
+        <v>353456.9671227507</v>
       </c>
     </row>
     <row r="21">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>256.3520473103032</v>
+        <v>286.6237508418868</v>
       </c>
       <c r="AB21" t="n">
-        <v>350.7521805839381</v>
+        <v>392.171260849322</v>
       </c>
       <c r="AC21" t="n">
-        <v>317.2768847528891</v>
+        <v>354.7429861296835</v>
       </c>
       <c r="AD21" t="n">
-        <v>256352.0473103032</v>
+        <v>286623.7508418867</v>
       </c>
       <c r="AE21" t="n">
-        <v>350752.1805839381</v>
+        <v>392171.260849322</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.768508433692563e-06</v>
+        <v>6.526269017092982e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.5625</v>
       </c>
       <c r="AH21" t="n">
-        <v>317276.8847528891</v>
+        <v>354742.9861296835</v>
       </c>
     </row>
   </sheetData>
@@ -12397,28 +12397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.0387264020476</v>
+        <v>398.4448727564812</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.0431604326652</v>
+        <v>545.1698530526011</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.9421991563045</v>
+        <v>493.1396074279545</v>
       </c>
       <c r="AD2" t="n">
-        <v>353038.7264020476</v>
+        <v>398444.8727564812</v>
       </c>
       <c r="AE2" t="n">
-        <v>483043.1604326651</v>
+        <v>545169.8530526011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.951708197877946e-06</v>
+        <v>5.585267087644356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.923611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>436942.1991563045</v>
+        <v>493139.6074279545</v>
       </c>
     </row>
     <row r="3">
@@ -12503,28 +12503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.2268844378567</v>
+        <v>275.4877299299853</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.6349742849753</v>
+        <v>376.9344657510892</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.2206890199986</v>
+        <v>340.9603693706498</v>
       </c>
       <c r="AD3" t="n">
-        <v>248226.8844378567</v>
+        <v>275487.7299299854</v>
       </c>
       <c r="AE3" t="n">
-        <v>339634.9742849753</v>
+        <v>376934.4657510892</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.676836877708071e-06</v>
+        <v>6.9573665901202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.361111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>307220.6890199987</v>
+        <v>340960.3693706498</v>
       </c>
     </row>
     <row r="4">
@@ -12609,28 +12609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.0701490575854</v>
+        <v>251.3609297993031</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.2684661657831</v>
+        <v>343.9231134128272</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.1838967633936</v>
+        <v>311.0995741679309</v>
       </c>
       <c r="AD4" t="n">
-        <v>215070.1490575854</v>
+        <v>251360.9297993031</v>
       </c>
       <c r="AE4" t="n">
-        <v>294268.4661657831</v>
+        <v>343923.1134128272</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.920679499258006e-06</v>
+        <v>7.418769302518021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.965277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>266183.8967633937</v>
+        <v>311099.5741679309</v>
       </c>
     </row>
     <row r="5">
@@ -12715,28 +12715,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.7357493039931</v>
+        <v>229.0818461421388</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.0237521507282</v>
+        <v>313.4398882693078</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.680432647313</v>
+        <v>283.5256252486241</v>
       </c>
       <c r="AD5" t="n">
-        <v>201735.7493039931</v>
+        <v>229081.8461421388</v>
       </c>
       <c r="AE5" t="n">
-        <v>276023.7521507283</v>
+        <v>313439.8882693078</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.051357589259906e-06</v>
+        <v>7.666040369383154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.773611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>249680.432647313</v>
+        <v>283525.6252486241</v>
       </c>
     </row>
     <row r="6">
@@ -12821,28 +12821,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.9532822924685</v>
+        <v>220.2993791306142</v>
       </c>
       <c r="AB6" t="n">
-        <v>264.0071933304669</v>
+        <v>301.4233294490465</v>
       </c>
       <c r="AC6" t="n">
-        <v>238.8107173355073</v>
+        <v>272.6559099368184</v>
       </c>
       <c r="AD6" t="n">
-        <v>192953.2822924685</v>
+        <v>220299.3791306142</v>
       </c>
       <c r="AE6" t="n">
-        <v>264007.1933304669</v>
+        <v>301423.3294490465</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.124948214686233e-06</v>
+        <v>7.805289668635811e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.670833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>238810.7173355073</v>
+        <v>272655.9099368184</v>
       </c>
     </row>
     <row r="7">
@@ -12927,28 +12927,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.5693037458769</v>
+        <v>217.9154005840226</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.7453287093113</v>
+        <v>298.1614648278908</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.860160495738</v>
+        <v>269.7053530970491</v>
       </c>
       <c r="AD7" t="n">
-        <v>190569.3037458769</v>
+        <v>217915.4005840226</v>
       </c>
       <c r="AE7" t="n">
-        <v>260745.3287093112</v>
+        <v>298161.4648278907</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.149702955962366e-06</v>
+        <v>7.852130966096087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.63611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>235860.160495738</v>
+        <v>269705.3530970491</v>
       </c>
     </row>
   </sheetData>
@@ -13224,28 +13224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.8114205195949</v>
+        <v>559.7980331440357</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.9654062500647</v>
+        <v>765.9403654938982</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.825549934299</v>
+        <v>692.8400920152145</v>
       </c>
       <c r="AD2" t="n">
-        <v>521811.4205195949</v>
+        <v>559798.0331440357</v>
       </c>
       <c r="AE2" t="n">
-        <v>713965.4062500647</v>
+        <v>765940.3654938982</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.444086848180563e-06</v>
+        <v>4.45259544336125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.154166666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>645825.5499342991</v>
+        <v>692840.0920152145</v>
       </c>
     </row>
     <row r="3">
@@ -13330,28 +13330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.9693167151542</v>
+        <v>351.8704989764725</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.5866704783494</v>
+        <v>481.4447401304367</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.5875215765738</v>
+        <v>435.4963298443238</v>
       </c>
       <c r="AD3" t="n">
-        <v>313969.3167151542</v>
+        <v>351870.4989764725</v>
       </c>
       <c r="AE3" t="n">
-        <v>429586.6704783494</v>
+        <v>481444.7401304367</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.295191641466299e-06</v>
+        <v>6.003123538231561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.790277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>388587.5215765738</v>
+        <v>435496.3298443238</v>
       </c>
     </row>
     <row r="4">
@@ -13436,28 +13436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.2386743178809</v>
+        <v>304.6433153087776</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.9619409919361</v>
+        <v>416.8264239200004</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.8897838165808</v>
+        <v>377.0450950406351</v>
       </c>
       <c r="AD4" t="n">
-        <v>276238.6743178808</v>
+        <v>304643.3153087776</v>
       </c>
       <c r="AE4" t="n">
-        <v>377961.9409919361</v>
+        <v>416826.4239200004</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.595164597191842e-06</v>
+        <v>6.549609117002811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.223611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>341889.7838165808</v>
+        <v>377045.0950406351</v>
       </c>
     </row>
     <row r="5">
@@ -13542,28 +13542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.3083627211881</v>
+        <v>287.1242041279378</v>
       </c>
       <c r="AB5" t="n">
-        <v>341.114700583683</v>
+        <v>392.8560031137378</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.5591923175671</v>
+        <v>355.3623775534253</v>
       </c>
       <c r="AD5" t="n">
-        <v>249308.3627211881</v>
+        <v>287124.2041279378</v>
       </c>
       <c r="AE5" t="n">
-        <v>341114.700583683</v>
+        <v>392856.0031137378</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.746439895487376e-06</v>
+        <v>6.825199857317637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>308559.1923175671</v>
+        <v>355362.3775534253</v>
       </c>
     </row>
     <row r="6">
@@ -13648,28 +13648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.9302303392311</v>
+        <v>267.4201226761514</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.9148820078094</v>
+        <v>365.896009588681</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.7145844969998</v>
+        <v>330.9754079718113</v>
       </c>
       <c r="AD6" t="n">
-        <v>238930.2303392311</v>
+        <v>267420.1226761514</v>
       </c>
       <c r="AE6" t="n">
-        <v>326914.8820078094</v>
+        <v>365896.009588681</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.833757479807056e-06</v>
+        <v>6.984273532770924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.836111111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>295714.5844969998</v>
+        <v>330975.4079718113</v>
       </c>
     </row>
     <row r="7">
@@ -13754,28 +13754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>230.4967292969083</v>
+        <v>258.9866216338285</v>
       </c>
       <c r="AB7" t="n">
-        <v>315.3757938219017</v>
+        <v>354.3569214027674</v>
       </c>
       <c r="AC7" t="n">
-        <v>285.2767706923395</v>
+        <v>320.5375941671493</v>
       </c>
       <c r="AD7" t="n">
-        <v>230496.7292969082</v>
+        <v>258986.6216338284</v>
       </c>
       <c r="AE7" t="n">
-        <v>315375.7938219017</v>
+        <v>354356.9214027674</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.90222606529758e-06</v>
+        <v>7.109008425884663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.734722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>285276.7706923395</v>
+        <v>320537.5941671493</v>
       </c>
     </row>
     <row r="8">
@@ -13860,28 +13860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>223.935481662731</v>
+        <v>252.4253739996479</v>
       </c>
       <c r="AB8" t="n">
-        <v>306.3984053470083</v>
+        <v>345.3795329277021</v>
       </c>
       <c r="AC8" t="n">
-        <v>277.1561715736432</v>
+        <v>312.4169950484041</v>
       </c>
       <c r="AD8" t="n">
-        <v>223935.4816627309</v>
+        <v>252425.3739996479</v>
       </c>
       <c r="AE8" t="n">
-        <v>306398.4053470084</v>
+        <v>345379.5329277021</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.946368165119707e-06</v>
+        <v>7.189425745209756e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.669444444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>277156.1715736432</v>
+        <v>312416.9950484041</v>
       </c>
     </row>
     <row r="9">
@@ -13966,28 +13966,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>218.3120341928773</v>
+        <v>246.8019265297943</v>
       </c>
       <c r="AB9" t="n">
-        <v>298.7041564297654</v>
+        <v>337.6852840104591</v>
       </c>
       <c r="AC9" t="n">
-        <v>270.1962509741134</v>
+        <v>305.4570744488743</v>
       </c>
       <c r="AD9" t="n">
-        <v>218312.0341928774</v>
+        <v>246801.9265297943</v>
       </c>
       <c r="AE9" t="n">
-        <v>298704.1564297654</v>
+        <v>337685.2840104591</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.981810727020683e-06</v>
+        <v>7.253994395762749e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.619444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>270196.2509741134</v>
+        <v>305457.0744488743</v>
       </c>
     </row>
     <row r="10">
@@ -14072,28 +14072,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>214.4362305313763</v>
+        <v>242.9261228682932</v>
       </c>
       <c r="AB10" t="n">
-        <v>293.4011108717125</v>
+        <v>332.3822384524062</v>
       </c>
       <c r="AC10" t="n">
-        <v>265.3993206412482</v>
+        <v>300.660144116009</v>
       </c>
       <c r="AD10" t="n">
-        <v>214436.2305313763</v>
+        <v>242926.1228682933</v>
       </c>
       <c r="AE10" t="n">
-        <v>293401.1108717126</v>
+        <v>332382.2384524063</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.999370905417076e-06</v>
+        <v>7.285985227173096e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.594444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>265399.3206412482</v>
+        <v>300660.144116009</v>
       </c>
     </row>
     <row r="11">
@@ -14178,28 +14178,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>214.4936520786379</v>
+        <v>242.9835444155549</v>
       </c>
       <c r="AB11" t="n">
-        <v>293.4796775659357</v>
+        <v>332.4608051466294</v>
       </c>
       <c r="AC11" t="n">
-        <v>265.4703890404437</v>
+        <v>300.7312125152046</v>
       </c>
       <c r="AD11" t="n">
-        <v>214493.6520786379</v>
+        <v>242983.5444155548</v>
       </c>
       <c r="AE11" t="n">
-        <v>293479.6775659356</v>
+        <v>332460.8051466293</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.005009494810415e-06</v>
+        <v>7.296257512488346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.587499999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>265470.3890404437</v>
+        <v>300731.2125152046</v>
       </c>
     </row>
   </sheetData>
@@ -14475,28 +14475,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.9102833241104</v>
+        <v>294.3183227338635</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.5666690115801</v>
+        <v>402.6993135724785</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.5820606006653</v>
+        <v>364.2662562771567</v>
       </c>
       <c r="AD2" t="n">
-        <v>267910.2833241104</v>
+        <v>294318.3227338634</v>
       </c>
       <c r="AE2" t="n">
-        <v>366566.6690115801</v>
+        <v>402699.3135724785</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.387233195021386e-06</v>
+        <v>6.637885694122376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.172222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>331582.0606006653</v>
+        <v>364266.2562771567</v>
       </c>
     </row>
     <row r="3">
@@ -14581,28 +14581,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.6749665047019</v>
+        <v>227.9976650598829</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.9405864431902</v>
+        <v>311.9564638818724</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.6052041581785</v>
+        <v>282.1837768027257</v>
       </c>
       <c r="AD3" t="n">
-        <v>201674.9665047019</v>
+        <v>227997.6650598829</v>
       </c>
       <c r="AE3" t="n">
-        <v>275940.5864431902</v>
+        <v>311956.4638818724</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.003745665329146e-06</v>
+        <v>7.846051495319328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>249605.2041581785</v>
+        <v>282183.7768027257</v>
       </c>
     </row>
     <row r="4">
@@ -14687,28 +14687,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.6345514840025</v>
+        <v>201.042501385204</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.9426976729705</v>
+        <v>275.0752197643019</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.1383419653138</v>
+        <v>248.8224268605733</v>
       </c>
       <c r="AD4" t="n">
-        <v>174634.5514840025</v>
+        <v>201042.501385204</v>
       </c>
       <c r="AE4" t="n">
-        <v>238942.6976729705</v>
+        <v>275075.2197643019</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.214146942429922e-06</v>
+        <v>8.258370207046968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>216138.3419653138</v>
+        <v>248822.4268605733</v>
       </c>
     </row>
     <row r="5">
@@ -14793,28 +14793,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.6245378654821</v>
+        <v>199.0324877666837</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.1925083645699</v>
+        <v>272.3250304559013</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.6506268645911</v>
+        <v>246.3347117598506</v>
       </c>
       <c r="AD5" t="n">
-        <v>172624.5378654821</v>
+        <v>199032.4877666837</v>
       </c>
       <c r="AE5" t="n">
-        <v>236192.5083645699</v>
+        <v>272325.0304559013</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.241430898562691e-06</v>
+        <v>8.311837970163769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.727777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>213650.6268645911</v>
+        <v>246334.7117598506</v>
       </c>
     </row>
   </sheetData>
@@ -15090,28 +15090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1147.543231124254</v>
+        <v>1208.597559572902</v>
       </c>
       <c r="AB2" t="n">
-        <v>1570.119274858556</v>
+        <v>1653.656500568867</v>
       </c>
       <c r="AC2" t="n">
-        <v>1420.269294942298</v>
+        <v>1495.833845076049</v>
       </c>
       <c r="AD2" t="n">
-        <v>1147543.231124254</v>
+        <v>1208597.559572902</v>
       </c>
       <c r="AE2" t="n">
-        <v>1570119.274858556</v>
+        <v>1653656.500568867</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58638013044166e-06</v>
+        <v>2.729337202042042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1420269.294942298</v>
+        <v>1495833.845076049</v>
       </c>
     </row>
     <row r="3">
@@ -15196,28 +15196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.8885734999229</v>
+        <v>528.5913994599873</v>
       </c>
       <c r="AB3" t="n">
-        <v>667.5506703873618</v>
+        <v>723.2420725478702</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.8405713188414</v>
+        <v>654.2168642205249</v>
       </c>
       <c r="AD3" t="n">
-        <v>487888.5734999229</v>
+        <v>528591.3994599873</v>
       </c>
       <c r="AE3" t="n">
-        <v>667550.6703873618</v>
+        <v>723242.0725478702</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.642421433453687e-06</v>
+        <v>4.54623641799555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.861111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>603840.5713188414</v>
+        <v>654216.8642205249</v>
       </c>
     </row>
     <row r="4">
@@ -15302,28 +15302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.8577960887359</v>
+        <v>434.4752811942286</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.8936123882519</v>
+        <v>594.4682474265627</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.4623623638517</v>
+        <v>537.7330322335962</v>
       </c>
       <c r="AD4" t="n">
-        <v>393857.7960887359</v>
+        <v>434475.2811942286</v>
       </c>
       <c r="AE4" t="n">
-        <v>538893.6123882519</v>
+        <v>594468.2474265627</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.022004045979465e-06</v>
+        <v>5.199301169459932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.873611111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>487462.3623638517</v>
+        <v>537733.0322335962</v>
       </c>
     </row>
     <row r="5">
@@ -15408,28 +15408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>360.7922011816167</v>
+        <v>391.2340693056444</v>
       </c>
       <c r="AB5" t="n">
-        <v>493.6518066852376</v>
+        <v>535.3037136529697</v>
       </c>
       <c r="AC5" t="n">
-        <v>446.53837109986</v>
+        <v>484.2150785254103</v>
       </c>
       <c r="AD5" t="n">
-        <v>360792.2011816168</v>
+        <v>391234.0693056444</v>
       </c>
       <c r="AE5" t="n">
-        <v>493651.8066852376</v>
+        <v>535303.7136529697</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.21553434566755e-06</v>
+        <v>5.532266413114349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.459722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>446538.37109986</v>
+        <v>484215.0785254103</v>
       </c>
     </row>
     <row r="6">
@@ -15514,28 +15514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.4610781683095</v>
+        <v>370.9029462923372</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.8338672325865</v>
+        <v>507.4857742003186</v>
       </c>
       <c r="AC6" t="n">
-        <v>421.3753367458467</v>
+        <v>459.0520441713969</v>
       </c>
       <c r="AD6" t="n">
-        <v>340461.0781683095</v>
+        <v>370902.9462923371</v>
       </c>
       <c r="AE6" t="n">
-        <v>465833.8672325865</v>
+        <v>507485.7742003186</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.347446033708423e-06</v>
+        <v>5.759217993410483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.205555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>421375.3367458467</v>
+        <v>459052.0441713969</v>
       </c>
     </row>
     <row r="7">
@@ -15620,28 +15620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>328.7575397895941</v>
+        <v>359.1994079136218</v>
       </c>
       <c r="AB7" t="n">
-        <v>449.8205696991552</v>
+        <v>491.4724766668873</v>
       </c>
       <c r="AC7" t="n">
-        <v>406.8903258542018</v>
+        <v>444.5670332797521</v>
       </c>
       <c r="AD7" t="n">
-        <v>328757.5397895941</v>
+        <v>359199.4079136218</v>
       </c>
       <c r="AE7" t="n">
-        <v>449820.5696991552</v>
+        <v>491472.4766668873</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.427310933270584e-06</v>
+        <v>5.896624052229229e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.061111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>406890.3258542018</v>
+        <v>444567.0332797521</v>
       </c>
     </row>
     <row r="8">
@@ -15726,28 +15726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>308.6880082069558</v>
+        <v>349.2201524578769</v>
       </c>
       <c r="AB8" t="n">
-        <v>422.3605511825448</v>
+        <v>477.818419098658</v>
       </c>
       <c r="AC8" t="n">
-        <v>382.0510529644386</v>
+        <v>432.2160998022445</v>
       </c>
       <c r="AD8" t="n">
-        <v>308688.0082069558</v>
+        <v>349220.1524578769</v>
       </c>
       <c r="AE8" t="n">
-        <v>422360.5511825448</v>
+        <v>477818.419098658</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.494612814924091e-06</v>
+        <v>6.012415674829296e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>382051.0529644386</v>
+        <v>432216.0998022445</v>
       </c>
     </row>
     <row r="9">
@@ -15832,28 +15832,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>303.3783029728659</v>
+        <v>333.9054224429141</v>
       </c>
       <c r="AB9" t="n">
-        <v>415.0955782336005</v>
+        <v>456.8641298539819</v>
       </c>
       <c r="AC9" t="n">
-        <v>375.479438837288</v>
+        <v>413.2616585135505</v>
       </c>
       <c r="AD9" t="n">
-        <v>303378.3029728659</v>
+        <v>333905.4224429141</v>
       </c>
       <c r="AE9" t="n">
-        <v>415095.5782336005</v>
+        <v>456864.1298539819</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.529161114172891e-06</v>
+        <v>6.071855374430666e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.886111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>375479.438837288</v>
+        <v>413261.6585135505</v>
       </c>
     </row>
     <row r="10">
@@ -15938,28 +15938,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>296.9812704384768</v>
+        <v>327.508389908525</v>
       </c>
       <c r="AB10" t="n">
-        <v>406.3428761028918</v>
+        <v>448.1114277232732</v>
       </c>
       <c r="AC10" t="n">
-        <v>367.5620823134395</v>
+        <v>405.344301989702</v>
       </c>
       <c r="AD10" t="n">
-        <v>296981.2704384768</v>
+        <v>327508.389908525</v>
       </c>
       <c r="AE10" t="n">
-        <v>406342.8761028918</v>
+        <v>448111.4277232732</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.573131676853183e-06</v>
+        <v>6.147505901196043e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.813888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>367562.0823134395</v>
+        <v>405344.301989702</v>
       </c>
     </row>
     <row r="11">
@@ -16044,28 +16044,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>292.3585967884817</v>
+        <v>322.88571625853</v>
       </c>
       <c r="AB11" t="n">
-        <v>400.0179300770003</v>
+        <v>441.7864816973817</v>
       </c>
       <c r="AC11" t="n">
-        <v>361.8407802591416</v>
+        <v>399.6229999354042</v>
       </c>
       <c r="AD11" t="n">
-        <v>292358.5967884817</v>
+        <v>322885.71625853</v>
       </c>
       <c r="AE11" t="n">
-        <v>400017.9300770003</v>
+        <v>441786.4816973817</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.599603750303562e-06</v>
+        <v>6.193050606085403e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.770833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>361840.7802591416</v>
+        <v>399622.9999354042</v>
       </c>
     </row>
     <row r="12">
@@ -16150,28 +16150,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>288.6149878623142</v>
+        <v>319.1421073323625</v>
       </c>
       <c r="AB12" t="n">
-        <v>394.8957591878482</v>
+        <v>436.6643108082297</v>
       </c>
       <c r="AC12" t="n">
-        <v>357.2074621706383</v>
+        <v>394.9896818469009</v>
       </c>
       <c r="AD12" t="n">
-        <v>288614.9878623142</v>
+        <v>319142.1073323624</v>
       </c>
       <c r="AE12" t="n">
-        <v>394895.7591878482</v>
+        <v>436664.3108082297</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.620691673221661e-06</v>
+        <v>6.229331981166758e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.737500000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>357207.4621706383</v>
+        <v>394989.6818469008</v>
       </c>
     </row>
     <row r="13">
@@ -16256,28 +16256,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>284.7705489916044</v>
+        <v>315.2976684616526</v>
       </c>
       <c r="AB13" t="n">
-        <v>389.6356283202702</v>
+        <v>431.4041799406515</v>
       </c>
       <c r="AC13" t="n">
-        <v>352.4493508104217</v>
+        <v>390.2315704866843</v>
       </c>
       <c r="AD13" t="n">
-        <v>284770.5489916044</v>
+        <v>315297.6684616526</v>
       </c>
       <c r="AE13" t="n">
-        <v>389635.6283202702</v>
+        <v>431404.1799406515</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.64177959613976e-06</v>
+        <v>6.265613356248112e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.704166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>352449.3508104217</v>
+        <v>390231.5704866843</v>
       </c>
     </row>
     <row r="14">
@@ -16362,28 +16362,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>281.8551292377014</v>
+        <v>312.3822487077496</v>
       </c>
       <c r="AB14" t="n">
-        <v>385.6466223937381</v>
+        <v>427.4151740141194</v>
       </c>
       <c r="AC14" t="n">
-        <v>348.8410500109129</v>
+        <v>386.6232696871755</v>
       </c>
       <c r="AD14" t="n">
-        <v>281855.1292377014</v>
+        <v>312382.2487077496</v>
       </c>
       <c r="AE14" t="n">
-        <v>385646.6223937381</v>
+        <v>427415.1740141194</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.65389393483739e-06</v>
+        <v>6.286455848316124e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.684722222222223</v>
       </c>
       <c r="AH14" t="n">
-        <v>348841.0500109129</v>
+        <v>386623.2696871755</v>
       </c>
     </row>
     <row r="15">
@@ -16468,28 +16468,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>278.4809540130403</v>
+        <v>309.0080734830885</v>
       </c>
       <c r="AB15" t="n">
-        <v>381.0299269932518</v>
+        <v>422.7984786136332</v>
       </c>
       <c r="AC15" t="n">
-        <v>344.6649655398763</v>
+        <v>382.4471852161388</v>
       </c>
       <c r="AD15" t="n">
-        <v>278480.9540130403</v>
+        <v>309008.0734830885</v>
       </c>
       <c r="AE15" t="n">
-        <v>381029.9269932518</v>
+        <v>422798.4786136332</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.670794185119272e-06</v>
+        <v>6.315532411324586e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.658333333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>344664.9655398763</v>
+        <v>382447.1852161388</v>
       </c>
     </row>
     <row r="16">
@@ -16574,28 +16574,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>275.8919692799239</v>
+        <v>306.4190887499722</v>
       </c>
       <c r="AB16" t="n">
-        <v>377.4875638634566</v>
+        <v>419.2561154838379</v>
       </c>
       <c r="AC16" t="n">
-        <v>341.4606805754509</v>
+        <v>379.2429002517135</v>
       </c>
       <c r="AD16" t="n">
-        <v>275891.9692799239</v>
+        <v>306419.0887499722</v>
       </c>
       <c r="AE16" t="n">
-        <v>377487.5638634566</v>
+        <v>419256.1154838379</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.68515191987202e-06</v>
+        <v>6.340234624145933e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.63611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>341460.6805754509</v>
+        <v>379242.9002517135</v>
       </c>
     </row>
     <row r="17">
@@ -16680,28 +16680,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>272.5271524256873</v>
+        <v>303.0542718957357</v>
       </c>
       <c r="AB17" t="n">
-        <v>372.8836729982473</v>
+        <v>414.6522246186286</v>
       </c>
       <c r="AC17" t="n">
-        <v>337.2961785928157</v>
+        <v>375.0783982690783</v>
       </c>
       <c r="AD17" t="n">
-        <v>272527.1524256874</v>
+        <v>303054.2718957356</v>
       </c>
       <c r="AE17" t="n">
-        <v>372883.6729982473</v>
+        <v>414652.2246186286</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.700407013046815e-06</v>
+        <v>6.366480725268616e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.61388888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>337296.1785928158</v>
+        <v>375078.3982690783</v>
       </c>
     </row>
     <row r="18">
@@ -16786,28 +16786,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>270.4369970534925</v>
+        <v>300.9641165235408</v>
       </c>
       <c r="AB18" t="n">
-        <v>370.0238302068632</v>
+        <v>411.7923818272446</v>
       </c>
       <c r="AC18" t="n">
-        <v>334.7092751836269</v>
+        <v>372.4914948598894</v>
       </c>
       <c r="AD18" t="n">
-        <v>270436.9970534925</v>
+        <v>300964.1165235408</v>
       </c>
       <c r="AE18" t="n">
-        <v>370023.8302068632</v>
+        <v>411792.3818272447</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.706239842790118e-06</v>
+        <v>6.376515999227289e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>334709.2751836269</v>
+        <v>372491.4948598894</v>
       </c>
     </row>
     <row r="19">
@@ -16892,28 +16892,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>267.5442241602323</v>
+        <v>298.0713436302806</v>
       </c>
       <c r="AB19" t="n">
-        <v>366.0658107141716</v>
+        <v>407.8343623345529</v>
       </c>
       <c r="AC19" t="n">
-        <v>331.1290035162024</v>
+        <v>368.911223192465</v>
       </c>
       <c r="AD19" t="n">
-        <v>267544.2241602323</v>
+        <v>298071.3436302806</v>
       </c>
       <c r="AE19" t="n">
-        <v>366065.8107141716</v>
+        <v>407834.3623345529</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.714914307536571e-06</v>
+        <v>6.391440252806853e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.591666666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>331129.0035162024</v>
+        <v>368911.223192465</v>
       </c>
     </row>
     <row r="20">
@@ -16998,28 +16998,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>264.7621254563234</v>
+        <v>295.2892449263716</v>
       </c>
       <c r="AB20" t="n">
-        <v>362.2592205299509</v>
+        <v>404.0277721503322</v>
       </c>
       <c r="AC20" t="n">
-        <v>327.6857089565809</v>
+        <v>365.4679286328436</v>
       </c>
       <c r="AD20" t="n">
-        <v>264762.1254563234</v>
+        <v>295289.2449263716</v>
       </c>
       <c r="AE20" t="n">
-        <v>362259.2205299509</v>
+        <v>404027.7721503322</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.721494935964913e-06</v>
+        <v>6.40276210034997e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.581944444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>327685.7089565809</v>
+        <v>365467.9286328435</v>
       </c>
     </row>
     <row r="21">
@@ -17104,28 +17104,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>263.5449290307468</v>
+        <v>294.072048500795</v>
       </c>
       <c r="AB21" t="n">
-        <v>360.5937986815607</v>
+        <v>402.362350301942</v>
       </c>
       <c r="AC21" t="n">
-        <v>326.1792326319668</v>
+        <v>363.9614523082293</v>
       </c>
       <c r="AD21" t="n">
-        <v>263544.9290307468</v>
+        <v>294072.048500795</v>
       </c>
       <c r="AE21" t="n">
-        <v>360593.7986815607</v>
+        <v>402362.350301942</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.727327765708217e-06</v>
+        <v>6.412797374308643e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.572222222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>326179.2326319668</v>
+        <v>363961.4523082293</v>
       </c>
     </row>
     <row r="22">
@@ -17210,28 +17210,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>262.0606924346565</v>
+        <v>292.5878119047047</v>
       </c>
       <c r="AB22" t="n">
-        <v>358.5630006908926</v>
+        <v>400.3315523112739</v>
       </c>
       <c r="AC22" t="n">
-        <v>324.3422511512852</v>
+        <v>362.1244708275477</v>
       </c>
       <c r="AD22" t="n">
-        <v>262060.6924346565</v>
+        <v>292587.8119047047</v>
       </c>
       <c r="AE22" t="n">
-        <v>358563.0006908926</v>
+        <v>400331.5523112739</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.735403991506638e-06</v>
+        <v>6.42669236902065e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>324342.2511512851</v>
+        <v>362124.4708275477</v>
       </c>
     </row>
     <row r="23">
@@ -17316,28 +17316,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>263.0413505450272</v>
+        <v>293.5684700150755</v>
       </c>
       <c r="AB23" t="n">
-        <v>359.9047803810842</v>
+        <v>401.6733320014656</v>
       </c>
       <c r="AC23" t="n">
-        <v>325.5559732710445</v>
+        <v>363.3381929473072</v>
       </c>
       <c r="AD23" t="n">
-        <v>263041.3505450272</v>
+        <v>293568.4700150755</v>
       </c>
       <c r="AE23" t="n">
-        <v>359904.7803810842</v>
+        <v>401673.3320014656</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.73525443176963e-06</v>
+        <v>6.426435054303762e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>325555.9732710446</v>
+        <v>363338.1929473071</v>
       </c>
     </row>
   </sheetData>
@@ -17613,28 +17613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.3550211165534</v>
+        <v>252.7395821936665</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.7629730351883</v>
+        <v>345.8094464406453</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.2494542052643</v>
+        <v>312.8058782190595</v>
       </c>
       <c r="AD2" t="n">
-        <v>218355.0211165534</v>
+        <v>252739.5821936665</v>
       </c>
       <c r="AE2" t="n">
-        <v>298762.9730351883</v>
+        <v>345809.4464406453</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.655800616197979e-06</v>
+        <v>7.328638640064366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>270249.4542052643</v>
+        <v>312805.8782190596</v>
       </c>
     </row>
     <row r="3">
@@ -17719,28 +17719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2673566313539</v>
+        <v>192.1197830801174</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.4943325409978</v>
+        <v>262.8667629367387</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.7825927336515</v>
+        <v>237.779128017952</v>
       </c>
       <c r="AD3" t="n">
-        <v>166267.3566313539</v>
+        <v>192119.7830801174</v>
       </c>
       <c r="AE3" t="n">
-        <v>227494.3325409978</v>
+        <v>262866.7629367387</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.213164783583071e-06</v>
+        <v>8.445964501761328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>205782.5927336515</v>
+        <v>237779.128017952</v>
       </c>
     </row>
     <row r="4">
@@ -17825,28 +17825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.7251559534091</v>
+        <v>187.5775824021726</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.2794931856856</v>
+        <v>256.6519235814264</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.1608889238265</v>
+        <v>232.157424208127</v>
       </c>
       <c r="AD4" t="n">
-        <v>161725.1559534091</v>
+        <v>187577.5824021726</v>
       </c>
       <c r="AE4" t="n">
-        <v>221279.4931856856</v>
+        <v>256651.9235814265</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.279926772804214e-06</v>
+        <v>8.579799616216358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.808333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>200160.8889238265</v>
+        <v>232157.424208127</v>
       </c>
     </row>
   </sheetData>
@@ -18122,28 +18122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.4271382887291</v>
+        <v>785.2273079000474</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.9296583101678</v>
+        <v>1074.382644452776</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.0704067100817</v>
+        <v>971.8450727717141</v>
       </c>
       <c r="AD2" t="n">
-        <v>726427.1382887291</v>
+        <v>785227.3079000474</v>
       </c>
       <c r="AE2" t="n">
-        <v>993929.6583101678</v>
+        <v>1074382.644452776</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.038624482322622e-06</v>
+        <v>3.610555442058648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>899070.4067100816</v>
+        <v>971845.0727717141</v>
       </c>
     </row>
     <row r="3">
@@ -18228,28 +18228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.9070648052149</v>
+        <v>419.3499095467108</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.4880475521752</v>
+        <v>573.7730466541261</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.5726970489722</v>
+        <v>519.0129523769845</v>
       </c>
       <c r="AD3" t="n">
-        <v>389907.0648052149</v>
+        <v>419349.9095467108</v>
       </c>
       <c r="AE3" t="n">
-        <v>533488.0475521752</v>
+        <v>573773.0466541261</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990531970750591e-06</v>
+        <v>5.29645433735901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>482572.6970489722</v>
+        <v>519012.9523769844</v>
       </c>
     </row>
     <row r="4">
@@ -18334,28 +18334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.0511260737068</v>
+        <v>355.4086299606311</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.1175350545319</v>
+        <v>486.2857670342852</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.5407036388195</v>
+        <v>439.8753359348928</v>
       </c>
       <c r="AD4" t="n">
-        <v>326051.1260737068</v>
+        <v>355408.6299606311</v>
       </c>
       <c r="AE4" t="n">
-        <v>446117.5350545319</v>
+        <v>486285.7670342852</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.325767603721957e-06</v>
+        <v>5.890181553671912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>403540.7036388195</v>
+        <v>439875.3359348928</v>
       </c>
     </row>
     <row r="5">
@@ -18440,28 +18440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.6274267075821</v>
+        <v>331.9849305945064</v>
       </c>
       <c r="AB5" t="n">
-        <v>414.0681962011163</v>
+        <v>454.2364281808696</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.5501087040444</v>
+        <v>410.8847410001177</v>
       </c>
       <c r="AD5" t="n">
-        <v>302627.4267075821</v>
+        <v>331984.9305945063</v>
       </c>
       <c r="AE5" t="n">
-        <v>414068.1962011163</v>
+        <v>454236.4281808696</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.498827557106525e-06</v>
+        <v>6.19668359066461e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.172222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>374550.1087040444</v>
+        <v>410884.7410001177</v>
       </c>
     </row>
     <row r="6">
@@ -18546,28 +18546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.0652355192585</v>
+        <v>318.1515607873752</v>
       </c>
       <c r="AB6" t="n">
-        <v>381.8293667267404</v>
+        <v>435.3090013255486</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.3881078672215</v>
+        <v>393.7637211990581</v>
       </c>
       <c r="AD6" t="n">
-        <v>279065.2355192585</v>
+        <v>318151.5607873751</v>
       </c>
       <c r="AE6" t="n">
-        <v>381829.3667267404</v>
+        <v>435309.0013255486</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.605337950699004e-06</v>
+        <v>6.385321412174044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.990277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>345388.1078672215</v>
+        <v>393763.7211990581</v>
       </c>
     </row>
     <row r="7">
@@ -18652,28 +18652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>270.0151246484322</v>
+        <v>299.4578798813771</v>
       </c>
       <c r="AB7" t="n">
-        <v>369.4466057705628</v>
+        <v>409.7314824029654</v>
       </c>
       <c r="AC7" t="n">
-        <v>334.1871402373874</v>
+        <v>370.627284784173</v>
       </c>
       <c r="AD7" t="n">
-        <v>270015.1246484322</v>
+        <v>299457.8798813771</v>
       </c>
       <c r="AE7" t="n">
-        <v>369446.6057705628</v>
+        <v>409731.4824029654</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.673442406747918e-06</v>
+        <v>6.505939464467665e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.879166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>334187.1402373874</v>
+        <v>370627.284784173</v>
       </c>
     </row>
     <row r="8">
@@ -18758,28 +18758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>263.0423224452624</v>
+        <v>292.4850776782073</v>
       </c>
       <c r="AB8" t="n">
-        <v>359.9061101778634</v>
+        <v>400.1909868102659</v>
       </c>
       <c r="AC8" t="n">
-        <v>325.5571761538855</v>
+        <v>361.9973207006711</v>
       </c>
       <c r="AD8" t="n">
-        <v>263042.3224452624</v>
+        <v>292485.0776782073</v>
       </c>
       <c r="AE8" t="n">
-        <v>359906.1101778633</v>
+        <v>400190.9868102659</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.724909472848809e-06</v>
+        <v>6.597091462890472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.797222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>325557.1761538854</v>
+        <v>361997.3207006711</v>
       </c>
     </row>
     <row r="9">
@@ -18864,28 +18864,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>256.9497511152723</v>
+        <v>286.3925063482204</v>
       </c>
       <c r="AB9" t="n">
-        <v>351.5699852987274</v>
+        <v>391.8548619313006</v>
       </c>
       <c r="AC9" t="n">
-        <v>318.0166393334953</v>
+        <v>354.4567838803294</v>
       </c>
       <c r="AD9" t="n">
-        <v>256949.7511152723</v>
+        <v>286392.5063482203</v>
       </c>
       <c r="AE9" t="n">
-        <v>351569.9852987274</v>
+        <v>391854.8619313006</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.767047161408754e-06</v>
+        <v>6.671720440451137e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>318016.6393334953</v>
+        <v>354456.7838803294</v>
       </c>
     </row>
     <row r="10">
@@ -18970,28 +18970,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>251.546529492024</v>
+        <v>280.989284724972</v>
       </c>
       <c r="AB10" t="n">
-        <v>344.1770591004883</v>
+        <v>384.4619357330577</v>
       </c>
       <c r="AC10" t="n">
-        <v>311.3292836355766</v>
+        <v>347.7694281824097</v>
       </c>
       <c r="AD10" t="n">
-        <v>251546.529492024</v>
+        <v>280989.284724972</v>
       </c>
       <c r="AE10" t="n">
-        <v>344177.0591004883</v>
+        <v>384461.9357330577</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.800477430930481e-06</v>
+        <v>6.730927931873806e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.681944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>311329.2836355767</v>
+        <v>347769.4281824097</v>
       </c>
     </row>
     <row r="11">
@@ -19076,28 +19076,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>247.1435494182985</v>
+        <v>276.5863046512465</v>
       </c>
       <c r="AB11" t="n">
-        <v>338.1527075178485</v>
+        <v>378.4375841504148</v>
       </c>
       <c r="AC11" t="n">
-        <v>305.8798877127515</v>
+        <v>342.3200322595837</v>
       </c>
       <c r="AD11" t="n">
-        <v>247143.5494182985</v>
+        <v>276586.3046512465</v>
       </c>
       <c r="AE11" t="n">
-        <v>338152.7075178485</v>
+        <v>378437.5841504147</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.822556957777389e-06</v>
+        <v>6.770032414580872e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.65</v>
       </c>
       <c r="AH11" t="n">
-        <v>305879.8877127515</v>
+        <v>342320.0322595837</v>
       </c>
     </row>
     <row r="12">
@@ -19182,28 +19182,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>243.3144506664392</v>
+        <v>272.7572058993871</v>
       </c>
       <c r="AB12" t="n">
-        <v>332.9135656776425</v>
+        <v>373.1984423102062</v>
       </c>
       <c r="AC12" t="n">
-        <v>301.1407622165915</v>
+        <v>337.5809067634228</v>
       </c>
       <c r="AD12" t="n">
-        <v>243314.4506664392</v>
+        <v>272757.2058993871</v>
       </c>
       <c r="AE12" t="n">
-        <v>332913.5656776425</v>
+        <v>373198.4423102062</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.84168218173633e-06</v>
+        <v>6.803904607348258e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.620833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>301140.7622165915</v>
+        <v>337580.9067634228</v>
       </c>
     </row>
     <row r="13">
@@ -19288,28 +19288,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>238.9746259619477</v>
+        <v>268.4173811948955</v>
       </c>
       <c r="AB13" t="n">
-        <v>326.9756260574068</v>
+        <v>367.2605026899674</v>
       </c>
       <c r="AC13" t="n">
-        <v>295.7695312197585</v>
+        <v>332.209675766589</v>
       </c>
       <c r="AD13" t="n">
-        <v>238974.6259619477</v>
+        <v>268417.3811948955</v>
       </c>
       <c r="AE13" t="n">
-        <v>326975.6260574068</v>
+        <v>367260.5026899674</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.863761708583239e-06</v>
+        <v>6.843009090055324e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.588888888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>295769.5312197585</v>
+        <v>332209.675766589</v>
       </c>
     </row>
     <row r="14">
@@ -19394,28 +19394,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>235.3528927452838</v>
+        <v>264.7956479782316</v>
       </c>
       <c r="AB14" t="n">
-        <v>322.0202108907769</v>
+        <v>362.305087523335</v>
       </c>
       <c r="AC14" t="n">
-        <v>291.2870539216614</v>
+        <v>327.7271984684911</v>
       </c>
       <c r="AD14" t="n">
-        <v>235352.8927452838</v>
+        <v>264795.6479782315</v>
       </c>
       <c r="AE14" t="n">
-        <v>322020.2108907769</v>
+        <v>362305.087523335</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.879777140028532e-06</v>
+        <v>6.871373609201997e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>291287.0539216613</v>
+        <v>327727.1984684911</v>
       </c>
     </row>
     <row r="15">
@@ -19500,28 +19500,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>235.7375948455604</v>
+        <v>265.1803500785081</v>
       </c>
       <c r="AB15" t="n">
-        <v>322.5465772762338</v>
+        <v>362.8314539087922</v>
       </c>
       <c r="AC15" t="n">
-        <v>291.7631846380503</v>
+        <v>328.2033291848801</v>
       </c>
       <c r="AD15" t="n">
-        <v>235737.5948455604</v>
+        <v>265180.3500785081</v>
       </c>
       <c r="AE15" t="n">
-        <v>322546.5772762339</v>
+        <v>362831.4539087922</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.875112451258058e-06</v>
+        <v>6.863112098770927e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.572222222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>291763.1846380503</v>
+        <v>328203.3291848801</v>
       </c>
     </row>
     <row r="16">
@@ -19606,28 +19606,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>236.5874599469027</v>
+        <v>266.0302151798504</v>
       </c>
       <c r="AB16" t="n">
-        <v>323.7094002012919</v>
+        <v>363.9942768338509</v>
       </c>
       <c r="AC16" t="n">
-        <v>292.8150293751734</v>
+        <v>329.2551739220035</v>
       </c>
       <c r="AD16" t="n">
-        <v>236587.4599469027</v>
+        <v>266030.2151798504</v>
       </c>
       <c r="AE16" t="n">
-        <v>323709.400201292</v>
+        <v>363994.2768338509</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.87464598238101e-06</v>
+        <v>6.86228594772782e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.573611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>292815.0293751734</v>
+        <v>329255.1739220035</v>
       </c>
     </row>
   </sheetData>
@@ -19903,28 +19903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.6189001877406</v>
+        <v>967.6320503506943</v>
       </c>
       <c r="AB2" t="n">
-        <v>1241.844220556769</v>
+        <v>1323.95686020305</v>
       </c>
       <c r="AC2" t="n">
-        <v>1123.32435108614</v>
+        <v>1197.600275650394</v>
       </c>
       <c r="AD2" t="n">
-        <v>907618.9001877406</v>
+        <v>967632.0503506942</v>
       </c>
       <c r="AE2" t="n">
-        <v>1241844.220556769</v>
+        <v>1323956.86020305</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.80182990906811e-06</v>
+        <v>3.142234027060736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1123324.35108614</v>
+        <v>1197600.275650394</v>
       </c>
     </row>
     <row r="3">
@@ -20009,28 +20009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.7040680518004</v>
+        <v>476.7128348271028</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.5177719322289</v>
+        <v>652.259531696416</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.4915144004763</v>
+        <v>590.0087974433118</v>
       </c>
       <c r="AD3" t="n">
-        <v>436704.0680518004</v>
+        <v>476712.8348271028</v>
       </c>
       <c r="AE3" t="n">
-        <v>597517.7719322289</v>
+        <v>652259.5316964161</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811902818269223e-06</v>
+        <v>4.903712981944702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.524999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>540491.5144004762</v>
+        <v>590008.7974433118</v>
       </c>
     </row>
     <row r="4">
@@ -20115,28 +20115,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.8659678430047</v>
+        <v>398.7893937637356</v>
       </c>
       <c r="AB4" t="n">
-        <v>491.0162492519313</v>
+        <v>545.6412418939208</v>
       </c>
       <c r="AC4" t="n">
-        <v>444.1543475689603</v>
+        <v>493.566007579857</v>
       </c>
       <c r="AD4" t="n">
-        <v>358865.9678430047</v>
+        <v>398789.3937637357</v>
       </c>
       <c r="AE4" t="n">
-        <v>491016.2492519313</v>
+        <v>545641.2418939208</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.171141418555231e-06</v>
+        <v>5.530193732414747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.672222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>444154.3475689603</v>
+        <v>493566.007579857</v>
       </c>
     </row>
     <row r="5">
@@ -20221,28 +20221,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.3032925959697</v>
+        <v>361.224616331426</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.3037809995257</v>
+        <v>494.2434561700168</v>
       </c>
       <c r="AC5" t="n">
-        <v>410.0411043567826</v>
+        <v>447.073554388197</v>
       </c>
       <c r="AD5" t="n">
-        <v>331303.2925959696</v>
+        <v>361224.616331426</v>
       </c>
       <c r="AE5" t="n">
-        <v>453303.7809995257</v>
+        <v>494243.4561700168</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.353045951524481e-06</v>
+        <v>5.847419354154031e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.311111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>410041.1043567826</v>
+        <v>447073.554388197</v>
       </c>
     </row>
     <row r="6">
@@ -20327,28 +20327,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>314.8170803772707</v>
+        <v>344.738404112727</v>
       </c>
       <c r="AB6" t="n">
-        <v>430.7466181215502</v>
+        <v>471.6862932920413</v>
       </c>
       <c r="AC6" t="n">
-        <v>389.6367654447042</v>
+        <v>426.6692154761186</v>
       </c>
       <c r="AD6" t="n">
-        <v>314817.0803772706</v>
+        <v>344738.404112727</v>
       </c>
       <c r="AE6" t="n">
-        <v>430746.6181215502</v>
+        <v>471686.2932920413</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.471116314213902e-06</v>
+        <v>6.053323756874254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.095833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>389636.7654447042</v>
+        <v>426669.2154761186</v>
       </c>
     </row>
     <row r="7">
@@ -20433,28 +20433,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>294.2711040263644</v>
+        <v>334.1091890925236</v>
       </c>
       <c r="AB7" t="n">
-        <v>402.6347068537358</v>
+        <v>457.1429323735277</v>
       </c>
       <c r="AC7" t="n">
-        <v>364.2078155329748</v>
+        <v>413.5138525119327</v>
       </c>
       <c r="AD7" t="n">
-        <v>294271.1040263643</v>
+        <v>334109.1890925237</v>
       </c>
       <c r="AE7" t="n">
-        <v>402634.7068537358</v>
+        <v>457142.9323735277</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.546681346335131e-06</v>
+        <v>6.185102574615196e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.966666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>364207.8155329748</v>
+        <v>413513.8525119327</v>
       </c>
     </row>
     <row r="8">
@@ -20539,28 +20539,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>285.9182682033807</v>
+        <v>315.9248432848576</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.2059883796207</v>
+        <v>432.2623082027611</v>
       </c>
       <c r="AC8" t="n">
-        <v>353.869837909722</v>
+        <v>391.0078001918487</v>
       </c>
       <c r="AD8" t="n">
-        <v>285918.2682033807</v>
+        <v>315924.8432848576</v>
       </c>
       <c r="AE8" t="n">
-        <v>391205.9883796207</v>
+        <v>432262.3082027611</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.606249748672633e-06</v>
+        <v>6.288984666826302e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.868055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>353869.8379097221</v>
+        <v>391007.8001918487</v>
       </c>
     </row>
     <row r="9">
@@ -20645,28 +20645,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>280.4269728121811</v>
+        <v>310.433547893658</v>
       </c>
       <c r="AB9" t="n">
-        <v>383.6925557665265</v>
+        <v>424.7488755896669</v>
       </c>
       <c r="AC9" t="n">
-        <v>347.0734767600526</v>
+        <v>384.2114390421793</v>
       </c>
       <c r="AD9" t="n">
-        <v>280426.9728121811</v>
+        <v>310433.547893658</v>
       </c>
       <c r="AE9" t="n">
-        <v>383692.5557665265</v>
+        <v>424748.8755896669</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.643879915878165e-06</v>
+        <v>6.354608392596488e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.806944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>347073.4767600526</v>
+        <v>384211.4390421793</v>
       </c>
     </row>
     <row r="10">
@@ -20751,28 +20751,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>275.1459468485032</v>
+        <v>305.1525219299801</v>
       </c>
       <c r="AB10" t="n">
-        <v>376.4668230605998</v>
+        <v>417.5231428837403</v>
       </c>
       <c r="AC10" t="n">
-        <v>340.5373578422002</v>
+        <v>377.6753201243268</v>
       </c>
       <c r="AD10" t="n">
-        <v>275145.9468485032</v>
+        <v>305152.5219299801</v>
       </c>
       <c r="AE10" t="n">
-        <v>376466.8230605999</v>
+        <v>417523.1428837403</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.678006059416785e-06</v>
+        <v>6.414121407060141e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.752777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>340537.3578422001</v>
+        <v>377675.3201243268</v>
       </c>
     </row>
     <row r="11">
@@ -20857,28 +20857,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>270.8849919412873</v>
+        <v>300.8915670227643</v>
       </c>
       <c r="AB11" t="n">
-        <v>370.6367965764836</v>
+        <v>411.6931163996241</v>
       </c>
       <c r="AC11" t="n">
-        <v>335.2637409032343</v>
+        <v>372.401703185361</v>
       </c>
       <c r="AD11" t="n">
-        <v>270884.9919412873</v>
+        <v>300891.5670227642</v>
       </c>
       <c r="AE11" t="n">
-        <v>370636.7965764836</v>
+        <v>411693.1163996241</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.703295969360583e-06</v>
+        <v>6.458224801707311e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.713888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>335263.7409032343</v>
+        <v>372401.703185361</v>
       </c>
     </row>
     <row r="12">
@@ -20963,28 +20963,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>266.5161860195188</v>
+        <v>296.5227611009957</v>
       </c>
       <c r="AB12" t="n">
-        <v>364.6592035762054</v>
+        <v>405.7155233993458</v>
       </c>
       <c r="AC12" t="n">
-        <v>329.8566409892982</v>
+        <v>366.9946032714249</v>
       </c>
       <c r="AD12" t="n">
-        <v>266516.1860195188</v>
+        <v>296522.7611009957</v>
       </c>
       <c r="AE12" t="n">
-        <v>364659.2035762054</v>
+        <v>405715.5233993458</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.726452995333219e-06</v>
+        <v>6.498608632950503e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.677777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>329856.6409892982</v>
+        <v>366994.6032714249</v>
       </c>
     </row>
     <row r="13">
@@ -21069,28 +21069,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>262.5233383652738</v>
+        <v>292.5299134467507</v>
       </c>
       <c r="AB13" t="n">
-        <v>359.1960132636612</v>
+        <v>400.2523330868016</v>
       </c>
       <c r="AC13" t="n">
-        <v>324.9148498925474</v>
+        <v>362.0528121746741</v>
       </c>
       <c r="AD13" t="n">
-        <v>262523.3383652738</v>
+        <v>292529.9134467507</v>
       </c>
       <c r="AE13" t="n">
-        <v>359196.0132636612</v>
+        <v>400252.3330868016</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.748543579320272e-06</v>
+        <v>6.537132682491706e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.644444444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>324914.8498925474</v>
+        <v>362052.8121746741</v>
       </c>
     </row>
     <row r="14">
@@ -21175,28 +21175,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>259.4077167696161</v>
+        <v>289.4142918510931</v>
       </c>
       <c r="AB14" t="n">
-        <v>354.9330823449583</v>
+        <v>395.9894021680988</v>
       </c>
       <c r="AC14" t="n">
-        <v>321.0587671176644</v>
+        <v>358.1967293997911</v>
       </c>
       <c r="AD14" t="n">
-        <v>259407.7167696161</v>
+        <v>289414.2918510931</v>
       </c>
       <c r="AE14" t="n">
-        <v>354933.0823449583</v>
+        <v>395989.4021680988</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.763016720553168e-06</v>
+        <v>6.562372577018701e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.623611111111112</v>
       </c>
       <c r="AH14" t="n">
-        <v>321058.7671176645</v>
+        <v>358196.7293997912</v>
       </c>
     </row>
     <row r="15">
@@ -21281,28 +21281,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>256.2519122330144</v>
+        <v>286.2584873144946</v>
       </c>
       <c r="AB15" t="n">
-        <v>350.615171353544</v>
+        <v>391.6714911768545</v>
       </c>
       <c r="AC15" t="n">
-        <v>317.15295149115</v>
+        <v>354.2909137733251</v>
       </c>
       <c r="AD15" t="n">
-        <v>256251.9122330144</v>
+        <v>286258.4873144946</v>
       </c>
       <c r="AE15" t="n">
-        <v>350615.171353544</v>
+        <v>391671.4911768545</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.775966373235234e-06</v>
+        <v>6.584955640542853e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>317152.95149115</v>
+        <v>354290.9137733252</v>
       </c>
     </row>
     <row r="16">
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>252.922587618105</v>
+        <v>282.9291626995851</v>
       </c>
       <c r="AB16" t="n">
-        <v>346.0598425359914</v>
+        <v>387.1161623592997</v>
       </c>
       <c r="AC16" t="n">
-        <v>313.0323768624992</v>
+        <v>350.1703391446736</v>
       </c>
       <c r="AD16" t="n">
-        <v>252922.587618105</v>
+        <v>282929.1626995851</v>
       </c>
       <c r="AE16" t="n">
-        <v>346059.8425359915</v>
+        <v>387116.1623592997</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.782212676293642e-06</v>
+        <v>6.595848647654505e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.594444444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>313032.3768624992</v>
+        <v>350170.3391446735</v>
       </c>
     </row>
     <row r="17">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>250.3134337944809</v>
+        <v>280.3200088759609</v>
       </c>
       <c r="AB17" t="n">
-        <v>342.4898831667679</v>
+        <v>383.5462029900743</v>
       </c>
       <c r="AC17" t="n">
-        <v>309.8031294050037</v>
+        <v>346.9410916871776</v>
       </c>
       <c r="AD17" t="n">
-        <v>250313.4337944809</v>
+        <v>280320.0088759609</v>
       </c>
       <c r="AE17" t="n">
-        <v>342489.8831667679</v>
+        <v>383546.2029900743</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.797599910657038e-06</v>
+        <v>6.622682640783205e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.572222222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>309803.1294050037</v>
+        <v>346941.0916871776</v>
       </c>
     </row>
     <row r="18">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>248.4336052093315</v>
+        <v>278.4401802908114</v>
       </c>
       <c r="AB18" t="n">
-        <v>339.9178187643836</v>
+        <v>380.9741385876887</v>
       </c>
       <c r="AC18" t="n">
-        <v>307.4765392192671</v>
+        <v>344.6145015014406</v>
       </c>
       <c r="AD18" t="n">
-        <v>248433.6052093315</v>
+        <v>278440.1802908115</v>
       </c>
       <c r="AE18" t="n">
-        <v>339917.8187643836</v>
+        <v>380974.1385876887</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.80506500455611e-06</v>
+        <v>6.635701112697127e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>307476.5392192671</v>
+        <v>344614.5015014406</v>
       </c>
     </row>
     <row r="19">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>249.196036694502</v>
+        <v>279.202611775982</v>
       </c>
       <c r="AB19" t="n">
-        <v>340.9610111584966</v>
+        <v>382.0173309818022</v>
       </c>
       <c r="AC19" t="n">
-        <v>308.420170795416</v>
+        <v>345.5581330775897</v>
       </c>
       <c r="AD19" t="n">
-        <v>249196.036694502</v>
+        <v>279202.611775982</v>
       </c>
       <c r="AE19" t="n">
-        <v>340961.0111584966</v>
+        <v>382017.3309818022</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.805369702266276e-06</v>
+        <v>6.636232478897696e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>308420.170795416</v>
+        <v>345558.1330775897</v>
       </c>
     </row>
   </sheetData>
@@ -22002,28 +22002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1450.403123423226</v>
+        <v>1533.017185159449</v>
       </c>
       <c r="AB2" t="n">
-        <v>1984.505540737468</v>
+        <v>2097.541744680145</v>
       </c>
       <c r="AC2" t="n">
-        <v>1795.107117200504</v>
+        <v>1897.355304486199</v>
       </c>
       <c r="AD2" t="n">
-        <v>1450403.123423226</v>
+        <v>1533017.185159449</v>
       </c>
       <c r="AE2" t="n">
-        <v>1984505.540737469</v>
+        <v>2097541.744680145</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.386981569058774e-06</v>
+        <v>2.357776743284106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>1795107.117200504</v>
+        <v>1897355.304486199</v>
       </c>
     </row>
     <row r="3">
@@ -22108,28 +22108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.5596247680602</v>
+        <v>594.824074717437</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.4046999347348</v>
+        <v>813.8645408145222</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.1190583971359</v>
+        <v>736.1904513052409</v>
       </c>
       <c r="AD3" t="n">
-        <v>553559.6247680602</v>
+        <v>594824.074717437</v>
       </c>
       <c r="AE3" t="n">
-        <v>757404.6999347348</v>
+        <v>813864.5408145222</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485743897727896e-06</v>
+        <v>4.225599880033347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.216666666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>685119.0583971358</v>
+        <v>736190.4513052409</v>
       </c>
     </row>
     <row r="4">
@@ -22214,28 +22214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.6780023579746</v>
+        <v>470.6903678380737</v>
       </c>
       <c r="AB4" t="n">
-        <v>601.5868400506583</v>
+        <v>644.0193266695344</v>
       </c>
       <c r="AC4" t="n">
-        <v>544.1722363686557</v>
+        <v>582.5550260189954</v>
       </c>
       <c r="AD4" t="n">
-        <v>439678.0023579746</v>
+        <v>470690.3678380737</v>
       </c>
       <c r="AE4" t="n">
-        <v>601586.8400506583</v>
+        <v>644019.3266695344</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887486226679187e-06</v>
+        <v>4.908535213223783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.073611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>544172.2363686557</v>
+        <v>582555.0260189953</v>
       </c>
     </row>
     <row r="5">
@@ -22320,28 +22320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>389.243852382888</v>
+        <v>420.3414692090077</v>
       </c>
       <c r="AB5" t="n">
-        <v>532.5806110570805</v>
+        <v>575.1297423286059</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.7518650193743</v>
+        <v>520.2401669204261</v>
       </c>
       <c r="AD5" t="n">
-        <v>389243.852382888</v>
+        <v>420341.4692090077</v>
       </c>
       <c r="AE5" t="n">
-        <v>532580.6110570806</v>
+        <v>575129.7423286058</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.096445175961685e-06</v>
+        <v>5.26375157796156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.595833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>481751.8650193743</v>
+        <v>520240.1669204261</v>
       </c>
     </row>
     <row r="6">
@@ -22426,28 +22426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.8025221081502</v>
+        <v>397.7295467336776</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.8753929335661</v>
+        <v>544.1911124302445</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.9771098185237</v>
+        <v>492.2542764369246</v>
       </c>
       <c r="AD6" t="n">
-        <v>366802.5221081502</v>
+        <v>397729.5467336776</v>
       </c>
       <c r="AE6" t="n">
-        <v>501875.3929335661</v>
+        <v>544191.1124302446</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.229525998692621e-06</v>
+        <v>5.489980156489138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.323611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>453977.1098185237</v>
+        <v>492254.2764369246</v>
       </c>
     </row>
     <row r="7">
@@ -22532,28 +22532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>353.1167470826019</v>
+        <v>384.0437717081294</v>
       </c>
       <c r="AB7" t="n">
-        <v>483.1499117698291</v>
+        <v>525.4656312665076</v>
       </c>
       <c r="AC7" t="n">
-        <v>437.038762295676</v>
+        <v>475.3159289140767</v>
       </c>
       <c r="AD7" t="n">
-        <v>353116.7470826019</v>
+        <v>384043.7717081294</v>
       </c>
       <c r="AE7" t="n">
-        <v>483149.9117698291</v>
+        <v>525465.6312665076</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.315991770809516e-06</v>
+        <v>5.636966238449597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.158333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>437038.7622956759</v>
+        <v>475315.9289140766</v>
       </c>
     </row>
     <row r="8">
@@ -22638,28 +22638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>343.3516045247375</v>
+        <v>374.278629150265</v>
       </c>
       <c r="AB8" t="n">
-        <v>469.7888129144742</v>
+        <v>512.1045324111527</v>
       </c>
       <c r="AC8" t="n">
-        <v>424.9528279626562</v>
+        <v>463.2299945810569</v>
       </c>
       <c r="AD8" t="n">
-        <v>343351.6045247375</v>
+        <v>374278.629150265</v>
       </c>
       <c r="AE8" t="n">
-        <v>469788.8129144742</v>
+        <v>512104.5324111527</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.378782391037262e-06</v>
+        <v>5.743706131301835e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.044444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>424952.8279626562</v>
+        <v>463229.9945810569</v>
       </c>
     </row>
     <row r="9">
@@ -22744,28 +22744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>324.7704108047673</v>
+        <v>365.9494303910214</v>
       </c>
       <c r="AB9" t="n">
-        <v>444.3652039223987</v>
+        <v>500.7081552104403</v>
       </c>
       <c r="AC9" t="n">
-        <v>401.9556125305249</v>
+        <v>452.9212716254647</v>
       </c>
       <c r="AD9" t="n">
-        <v>324770.4108047673</v>
+        <v>365949.4303910214</v>
       </c>
       <c r="AE9" t="n">
-        <v>444365.2039223987</v>
+        <v>500708.1552104403</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.432602922661044e-06</v>
+        <v>5.835197468032326e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="AH9" t="n">
-        <v>401955.6125305249</v>
+        <v>452921.2716254647</v>
       </c>
     </row>
     <row r="10">
@@ -22850,28 +22850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>319.3519925010182</v>
+        <v>350.3642684725663</v>
       </c>
       <c r="AB10" t="n">
-        <v>436.9514849554646</v>
+        <v>479.3838491047923</v>
       </c>
       <c r="AC10" t="n">
-        <v>395.249448496575</v>
+        <v>433.6321273656881</v>
       </c>
       <c r="AD10" t="n">
-        <v>319351.9925010182</v>
+        <v>350364.2684725663</v>
       </c>
       <c r="AE10" t="n">
-        <v>436951.4849554646</v>
+        <v>479383.8491047923</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.465395213787009e-06</v>
+        <v>5.890942189592159e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.893055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>395249.4484965751</v>
+        <v>433632.127365688</v>
       </c>
     </row>
     <row r="11">
@@ -22956,28 +22956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>314.0617468257982</v>
+        <v>345.0740227973463</v>
       </c>
       <c r="AB11" t="n">
-        <v>429.7131374334611</v>
+        <v>472.1455015827888</v>
       </c>
       <c r="AC11" t="n">
-        <v>388.7019187029871</v>
+        <v>427.0845975721001</v>
       </c>
       <c r="AD11" t="n">
-        <v>314061.7468257982</v>
+        <v>345074.0227973463</v>
       </c>
       <c r="AE11" t="n">
-        <v>429713.1374334611</v>
+        <v>472145.5015827888</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.500540315038605e-06</v>
+        <v>5.950686532429831e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.834722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>388701.9187029871</v>
+        <v>427084.5975721001</v>
       </c>
     </row>
     <row r="12">
@@ -23062,28 +23062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>309.2909355723971</v>
+        <v>340.3032115439451</v>
       </c>
       <c r="AB12" t="n">
-        <v>423.1855030032197</v>
+        <v>465.6178671525475</v>
       </c>
       <c r="AC12" t="n">
-        <v>382.7972725411755</v>
+        <v>421.1799514102885</v>
       </c>
       <c r="AD12" t="n">
-        <v>309290.9355723971</v>
+        <v>340303.2115439451</v>
       </c>
       <c r="AE12" t="n">
-        <v>423185.5030032197</v>
+        <v>465617.8671525475</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.528479935280459e-06</v>
+        <v>5.998182035104129e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.788888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>382797.2725411755</v>
+        <v>421179.9514102885</v>
       </c>
     </row>
     <row r="13">
@@ -23168,28 +23168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>305.6315886576944</v>
+        <v>336.6438646292424</v>
       </c>
       <c r="AB13" t="n">
-        <v>418.1786231155314</v>
+        <v>460.610987264859</v>
       </c>
       <c r="AC13" t="n">
-        <v>378.268242242768</v>
+        <v>416.650921111881</v>
       </c>
       <c r="AD13" t="n">
-        <v>305631.5886576943</v>
+        <v>336643.8646292424</v>
       </c>
       <c r="AE13" t="n">
-        <v>418178.6231155313</v>
+        <v>460610.987264859</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.550096378309683e-06</v>
+        <v>6.034928555594243e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.752777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>378268.242242768</v>
+        <v>416650.921111881</v>
       </c>
     </row>
     <row r="14">
@@ -23274,28 +23274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>302.5778172661764</v>
+        <v>333.5900932377244</v>
       </c>
       <c r="AB14" t="n">
-        <v>414.0003183747709</v>
+        <v>456.4326825240987</v>
       </c>
       <c r="AC14" t="n">
-        <v>374.4887090421783</v>
+        <v>412.8713879112913</v>
       </c>
       <c r="AD14" t="n">
-        <v>302577.8172661764</v>
+        <v>333590.0932377244</v>
       </c>
       <c r="AE14" t="n">
-        <v>414000.3183747709</v>
+        <v>456432.6825240987</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.564360289696314e-06</v>
+        <v>6.059176259591122e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.730555555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>374488.7090421783</v>
+        <v>412871.3879112913</v>
       </c>
     </row>
     <row r="15">
@@ -23380,28 +23380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>300.0817798555289</v>
+        <v>331.094055827077</v>
       </c>
       <c r="AB15" t="n">
-        <v>410.5851298721242</v>
+        <v>453.0174940214519</v>
       </c>
       <c r="AC15" t="n">
-        <v>371.399461336977</v>
+        <v>409.7821402060899</v>
       </c>
       <c r="AD15" t="n">
-        <v>300081.7798555289</v>
+        <v>331094.055827077</v>
       </c>
       <c r="AE15" t="n">
-        <v>410585.1298721242</v>
+        <v>453017.4940214519</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.577300745387278e-06</v>
+        <v>6.081174176619217e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.709722222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>371399.461336977</v>
+        <v>409782.1402060899</v>
       </c>
     </row>
     <row r="16">
@@ -23486,28 +23486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>296.889085517461</v>
+        <v>327.901361489009</v>
       </c>
       <c r="AB16" t="n">
-        <v>406.2167446270462</v>
+        <v>448.649108776374</v>
       </c>
       <c r="AC16" t="n">
-        <v>367.4479886486221</v>
+        <v>405.830667517735</v>
       </c>
       <c r="AD16" t="n">
-        <v>296889.085517461</v>
+        <v>327901.3614890091</v>
       </c>
       <c r="AE16" t="n">
-        <v>406216.7446270462</v>
+        <v>448649.108776374</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.593035163102427e-06</v>
+        <v>6.107921643914742e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.684722222222223</v>
       </c>
       <c r="AH16" t="n">
-        <v>367447.9886486221</v>
+        <v>405830.667517735</v>
       </c>
     </row>
     <row r="17">
@@ -23592,28 +23592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>293.808976521434</v>
+        <v>324.8212524929821</v>
       </c>
       <c r="AB17" t="n">
-        <v>402.0024036138635</v>
+        <v>444.4347677631912</v>
       </c>
       <c r="AC17" t="n">
-        <v>363.6358584268727</v>
+        <v>402.0185372959857</v>
       </c>
       <c r="AD17" t="n">
-        <v>293808.976521434</v>
+        <v>324821.2524929821</v>
       </c>
       <c r="AE17" t="n">
-        <v>402002.4036138635</v>
+        <v>444434.7677631912</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.609945985880391e-06</v>
+        <v>6.136668921849186e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.658333333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>363635.8584268727</v>
+        <v>402018.5372959857</v>
       </c>
     </row>
     <row r="18">
@@ -23698,28 +23698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>291.6389029287777</v>
+        <v>322.6511789003257</v>
       </c>
       <c r="AB18" t="n">
-        <v>399.033213187501</v>
+        <v>441.4655773368287</v>
       </c>
       <c r="AC18" t="n">
-        <v>360.9500433675173</v>
+        <v>399.3327222366302</v>
       </c>
       <c r="AD18" t="n">
-        <v>291638.9029287777</v>
+        <v>322651.1789003257</v>
       </c>
       <c r="AE18" t="n">
-        <v>399033.213187501</v>
+        <v>441465.5773368287</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.616710314991577e-06</v>
+        <v>6.148167833022963e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.647222222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>360950.0433675172</v>
+        <v>399332.7222366302</v>
       </c>
     </row>
     <row r="19">
@@ -23804,28 +23804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>289.1258657559009</v>
+        <v>320.138141727449</v>
       </c>
       <c r="AB19" t="n">
-        <v>395.5947648601957</v>
+        <v>438.0271290095233</v>
       </c>
       <c r="AC19" t="n">
-        <v>357.8397557226774</v>
+        <v>396.2224345917904</v>
       </c>
       <c r="AD19" t="n">
-        <v>289125.8657559009</v>
+        <v>320138.141727449</v>
       </c>
       <c r="AE19" t="n">
-        <v>395594.7648601956</v>
+        <v>438027.1290095233</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.623033492204207e-06</v>
+        <v>6.158916815207147e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.6375</v>
       </c>
       <c r="AH19" t="n">
-        <v>357839.7557226774</v>
+        <v>396222.4345917904</v>
       </c>
     </row>
     <row r="20">
@@ -23910,28 +23910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>286.4237658098513</v>
+        <v>317.4360417813994</v>
       </c>
       <c r="AB20" t="n">
-        <v>391.8976325057741</v>
+        <v>434.3299966551018</v>
       </c>
       <c r="AC20" t="n">
-        <v>354.4954724912041</v>
+        <v>392.8781513603171</v>
       </c>
       <c r="AD20" t="n">
-        <v>286423.7658098513</v>
+        <v>317436.0417813993</v>
       </c>
       <c r="AE20" t="n">
-        <v>391897.6325057741</v>
+        <v>434329.9966551018</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.638326758020801e-06</v>
+        <v>6.18491435351308e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.61388888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>354495.4724912041</v>
+        <v>392878.1513603171</v>
       </c>
     </row>
     <row r="21">
@@ -24016,28 +24016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>283.9343568786627</v>
+        <v>314.9466328502108</v>
       </c>
       <c r="AB21" t="n">
-        <v>388.491513381151</v>
+        <v>430.9238775304787</v>
       </c>
       <c r="AC21" t="n">
-        <v>351.4144285953167</v>
+        <v>389.7971074644296</v>
       </c>
       <c r="AD21" t="n">
-        <v>283934.3568786627</v>
+        <v>314946.6328502108</v>
       </c>
       <c r="AE21" t="n">
-        <v>388491.513381151</v>
+        <v>430923.8775304787</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.647002745359061e-06</v>
+        <v>6.199662956975098e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>351414.4285953167</v>
+        <v>389797.1074644296</v>
       </c>
     </row>
     <row r="22">
@@ -24122,28 +24122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>281.5802983170504</v>
+        <v>312.5925742885985</v>
       </c>
       <c r="AB22" t="n">
-        <v>385.270586603419</v>
+        <v>427.7029507527466</v>
       </c>
       <c r="AC22" t="n">
-        <v>348.5009025486523</v>
+        <v>386.8835814177652</v>
       </c>
       <c r="AD22" t="n">
-        <v>281580.2983170504</v>
+        <v>312592.5742885985</v>
       </c>
       <c r="AE22" t="n">
-        <v>385270.586603419</v>
+        <v>427702.9507527466</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.653767074470247e-06</v>
+        <v>6.211161868148875e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH22" t="n">
-        <v>348500.9025486523</v>
+        <v>386883.5814177652</v>
       </c>
     </row>
     <row r="23">
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>280.8830216460254</v>
+        <v>311.8952976175735</v>
       </c>
       <c r="AB23" t="n">
-        <v>384.3165419004469</v>
+        <v>426.7489060497746</v>
       </c>
       <c r="AC23" t="n">
-        <v>347.6379105331217</v>
+        <v>386.0205894022346</v>
       </c>
       <c r="AD23" t="n">
-        <v>280883.0216460254</v>
+        <v>311895.2976175735</v>
       </c>
       <c r="AE23" t="n">
-        <v>384316.5419004469</v>
+        <v>426748.9060497746</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.651267213711765e-06</v>
+        <v>6.206912270541175e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.593055555555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>347637.9105331217</v>
+        <v>386020.5894022346</v>
       </c>
     </row>
     <row r="24">
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>279.0878842090659</v>
+        <v>310.100160180614</v>
       </c>
       <c r="AB24" t="n">
-        <v>381.8603556633245</v>
+        <v>424.2927198126521</v>
       </c>
       <c r="AC24" t="n">
-        <v>345.4161392631913</v>
+        <v>383.7988181323042</v>
       </c>
       <c r="AD24" t="n">
-        <v>279087.8842090659</v>
+        <v>310100.160180614</v>
       </c>
       <c r="AE24" t="n">
-        <v>381860.3556633245</v>
+        <v>424292.7198126522</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.658913846620061e-06</v>
+        <v>6.21991103969414e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.581944444444444</v>
       </c>
       <c r="AH24" t="n">
-        <v>345416.1392631913</v>
+        <v>383798.8181323042</v>
       </c>
     </row>
     <row r="25">
@@ -24440,28 +24440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>276.7628492368133</v>
+        <v>307.7751252083614</v>
       </c>
       <c r="AB25" t="n">
-        <v>378.6791402409848</v>
+        <v>421.1115043903124</v>
       </c>
       <c r="AC25" t="n">
-        <v>342.5385345758958</v>
+        <v>380.9212134450087</v>
       </c>
       <c r="AD25" t="n">
-        <v>276762.8492368133</v>
+        <v>307775.1252083614</v>
       </c>
       <c r="AE25" t="n">
-        <v>378679.1402409848</v>
+        <v>421111.5043903124</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.666854580794062e-06</v>
+        <v>6.233409761506835e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.569444444444445</v>
       </c>
       <c r="AH25" t="n">
-        <v>342538.5345758958</v>
+        <v>380921.2134450087</v>
       </c>
     </row>
     <row r="26">
@@ -24546,28 +24546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>277.2307494280051</v>
+        <v>308.2430253995532</v>
       </c>
       <c r="AB26" t="n">
-        <v>379.3193419248731</v>
+        <v>421.7517060742007</v>
       </c>
       <c r="AC26" t="n">
-        <v>343.1176363096024</v>
+        <v>381.5003151787154</v>
       </c>
       <c r="AD26" t="n">
-        <v>277230.7494280051</v>
+        <v>308243.0253995532</v>
       </c>
       <c r="AE26" t="n">
-        <v>379319.3419248731</v>
+        <v>421751.7060742007</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.666854580794062e-06</v>
+        <v>6.233409761506835e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.569444444444445</v>
       </c>
       <c r="AH26" t="n">
-        <v>343117.6363096024</v>
+        <v>381500.3151787154</v>
       </c>
     </row>
     <row r="27">
@@ -24652,28 +24652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>277.9386082612027</v>
+        <v>308.9508842327507</v>
       </c>
       <c r="AB27" t="n">
-        <v>380.2878656089815</v>
+        <v>422.7202297583092</v>
       </c>
       <c r="AC27" t="n">
-        <v>343.9937254526311</v>
+        <v>382.3764043217442</v>
       </c>
       <c r="AD27" t="n">
-        <v>277938.6082612026</v>
+        <v>308950.8842327507</v>
       </c>
       <c r="AE27" t="n">
-        <v>380287.8656089815</v>
+        <v>422720.2297583092</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.666266378262654e-06</v>
+        <v>6.232409856187377e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>5.570833333333334</v>
       </c>
       <c r="AH27" t="n">
-        <v>343993.7254526311</v>
+        <v>382376.4043217442</v>
       </c>
     </row>
   </sheetData>
@@ -24949,28 +24949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.2002614412382</v>
+        <v>628.2409932470082</v>
       </c>
       <c r="AB2" t="n">
-        <v>793.8555943329181</v>
+        <v>859.5870429970797</v>
       </c>
       <c r="AC2" t="n">
-        <v>718.0911305931082</v>
+        <v>777.5492620514297</v>
       </c>
       <c r="AD2" t="n">
-        <v>580200.2614412382</v>
+        <v>628240.9932470082</v>
       </c>
       <c r="AE2" t="n">
-        <v>793855.5943329182</v>
+        <v>859587.0429970797</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.301024110674864e-06</v>
+        <v>4.149290985759947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.602777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>718091.1305931082</v>
+        <v>777549.2620514296</v>
       </c>
     </row>
     <row r="3">
@@ -25055,28 +25055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.9919739058417</v>
+        <v>373.3392184958862</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.3507975008269</v>
+        <v>510.8191893099583</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.6064406867318</v>
+        <v>462.0673228214502</v>
       </c>
       <c r="AD3" t="n">
-        <v>334991.9739058418</v>
+        <v>373339.2184958862</v>
       </c>
       <c r="AE3" t="n">
-        <v>458350.7975008269</v>
+        <v>510819.1893099584</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.191589166783679e-06</v>
+        <v>5.755190525187781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.923611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>414606.4406867318</v>
+        <v>462067.3228214502</v>
       </c>
     </row>
     <row r="4">
@@ -25161,28 +25161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.7611924458287</v>
+        <v>321.5003801832701</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.5687792166494</v>
+        <v>439.891003762497</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.3390571300242</v>
+        <v>397.9084237543047</v>
       </c>
       <c r="AD4" t="n">
-        <v>292761.1924458288</v>
+        <v>321500.3801832701</v>
       </c>
       <c r="AE4" t="n">
-        <v>400568.7792166494</v>
+        <v>439891.0037624969</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.501330175044461e-06</v>
+        <v>6.313726860176345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.311111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>362339.0571300242</v>
+        <v>397908.4237543048</v>
       </c>
     </row>
     <row r="5">
@@ -25267,28 +25267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>273.4273459101225</v>
+        <v>302.166533647564</v>
       </c>
       <c r="AB5" t="n">
-        <v>374.1153574373852</v>
+        <v>413.4375819832327</v>
       </c>
       <c r="AC5" t="n">
-        <v>338.4103127977624</v>
+        <v>373.979679422043</v>
       </c>
       <c r="AD5" t="n">
-        <v>273427.3459101226</v>
+        <v>302166.533647564</v>
       </c>
       <c r="AE5" t="n">
-        <v>374115.3574373852</v>
+        <v>413437.5819832328</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.662166415081262e-06</v>
+        <v>6.603752661241288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.033333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>338410.3127977624</v>
+        <v>373979.679422043</v>
       </c>
     </row>
     <row r="6">
@@ -25373,28 +25373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.7878311719136</v>
+        <v>280.6122702553787</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.5072187043917</v>
+        <v>383.9460879030556</v>
       </c>
       <c r="AC6" t="n">
-        <v>311.6279332702657</v>
+        <v>347.302812145306</v>
       </c>
       <c r="AD6" t="n">
-        <v>251787.8311719136</v>
+        <v>280612.2702553787</v>
       </c>
       <c r="AE6" t="n">
-        <v>344507.2187043917</v>
+        <v>383946.0879030556</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.761436260563916e-06</v>
+        <v>6.782759683857036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.873611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>311627.9332702656</v>
+        <v>347302.812145306</v>
       </c>
     </row>
     <row r="7">
@@ -25479,28 +25479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>243.8457929580947</v>
+        <v>272.6702320415596</v>
       </c>
       <c r="AB7" t="n">
-        <v>333.6405716422527</v>
+        <v>373.0794408409109</v>
       </c>
       <c r="AC7" t="n">
-        <v>301.7983837522987</v>
+        <v>337.4732626273375</v>
       </c>
       <c r="AD7" t="n">
-        <v>243845.7929580947</v>
+        <v>272670.2320415596</v>
       </c>
       <c r="AE7" t="n">
-        <v>333640.5716422527</v>
+        <v>373079.4408409109</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.823320827699739e-06</v>
+        <v>6.89435220276333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.779166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>301798.3837522987</v>
+        <v>337473.2626273375</v>
       </c>
     </row>
     <row r="8">
@@ -25585,28 +25585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>237.708089438951</v>
+        <v>266.5325285224158</v>
       </c>
       <c r="AB8" t="n">
-        <v>325.2426949109957</v>
+        <v>364.6815641096495</v>
       </c>
       <c r="AC8" t="n">
-        <v>294.2019885897761</v>
+        <v>329.8768674648137</v>
       </c>
       <c r="AD8" t="n">
-        <v>237708.089438951</v>
+        <v>266532.5285224158</v>
       </c>
       <c r="AE8" t="n">
-        <v>325242.6949109957</v>
+        <v>364681.5641096495</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.8667513850984e-06</v>
+        <v>6.972667775157721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.713888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>294201.9885897761</v>
+        <v>329876.8674648137</v>
       </c>
     </row>
     <row r="9">
@@ -25691,28 +25691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>231.9739633504721</v>
+        <v>260.7984024339369</v>
       </c>
       <c r="AB9" t="n">
-        <v>317.3970106249536</v>
+        <v>356.8358798236035</v>
       </c>
       <c r="AC9" t="n">
-        <v>287.1050854005044</v>
+        <v>322.7799642755408</v>
       </c>
       <c r="AD9" t="n">
-        <v>231973.9633504721</v>
+        <v>260798.4024339369</v>
       </c>
       <c r="AE9" t="n">
-        <v>317397.0106249536</v>
+        <v>356835.8798236035</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.901591282791831e-06</v>
+        <v>7.035492355210363e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.662500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>287105.0854005044</v>
+        <v>322779.9642755408</v>
       </c>
     </row>
     <row r="10">
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>226.3882504508555</v>
+        <v>255.2126895343171</v>
       </c>
       <c r="AB10" t="n">
-        <v>309.7543918114407</v>
+        <v>349.1932610099173</v>
       </c>
       <c r="AC10" t="n">
-        <v>280.1918674000678</v>
+        <v>315.8667462750549</v>
       </c>
       <c r="AD10" t="n">
-        <v>226388.2504508555</v>
+        <v>255212.6895343171</v>
       </c>
       <c r="AE10" t="n">
-        <v>309754.3918114407</v>
+        <v>349193.2610099172</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.9353175764494e-06</v>
+        <v>7.09630884366315e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.615277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>280191.8674000678</v>
+        <v>315866.7462750549</v>
       </c>
     </row>
     <row r="11">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>222.4454245528339</v>
+        <v>251.2698636362954</v>
       </c>
       <c r="AB11" t="n">
-        <v>304.359643472568</v>
+        <v>343.7985126710445</v>
       </c>
       <c r="AC11" t="n">
-        <v>275.3119862710786</v>
+        <v>310.9868651460657</v>
       </c>
       <c r="AD11" t="n">
-        <v>222445.4245528339</v>
+        <v>251269.8636362954</v>
       </c>
       <c r="AE11" t="n">
-        <v>304359.643472568</v>
+        <v>343798.5126710445</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.954726103931585e-06</v>
+        <v>7.131307011546357e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.587499999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>275311.9862710786</v>
+        <v>310986.8651460657</v>
       </c>
     </row>
     <row r="12">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>221.5983172003966</v>
+        <v>250.4227562838582</v>
       </c>
       <c r="AB12" t="n">
-        <v>303.2005938212251</v>
+        <v>342.6394630197017</v>
       </c>
       <c r="AC12" t="n">
-        <v>274.2635546917231</v>
+        <v>309.9384335667102</v>
       </c>
       <c r="AD12" t="n">
-        <v>221598.3172003966</v>
+        <v>250422.7562838582</v>
       </c>
       <c r="AE12" t="n">
-        <v>303200.5938212251</v>
+        <v>342639.4630197017</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.958226002330013e-06</v>
+        <v>7.137618156574478e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.581944444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>274263.5546917231</v>
+        <v>309938.4335667102</v>
       </c>
     </row>
   </sheetData>
@@ -26306,28 +26306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.2427627836759</v>
+        <v>446.1643934355603</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.9440025570966</v>
+        <v>610.4618064823894</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.50373283939</v>
+        <v>552.2001884602361</v>
       </c>
       <c r="AD2" t="n">
-        <v>409242.7627836759</v>
+        <v>446164.3934355603</v>
       </c>
       <c r="AE2" t="n">
-        <v>559944.0025570967</v>
+        <v>610461.8064823895</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.764626347393502e-06</v>
+        <v>5.15790907150135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>506503.7328393899</v>
+        <v>552200.1884602361</v>
       </c>
     </row>
     <row r="3">
@@ -26412,28 +26412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.9116926935169</v>
+        <v>297.581602845925</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.3050856067518</v>
+        <v>407.1642773875591</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.0591265593857</v>
+        <v>368.3050902123422</v>
       </c>
       <c r="AD3" t="n">
-        <v>269911.6926935169</v>
+        <v>297581.602845925</v>
       </c>
       <c r="AE3" t="n">
-        <v>369305.0856067518</v>
+        <v>407164.2773875591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.54232768697977e-06</v>
+        <v>6.60885118458388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.497222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>334059.1265593857</v>
+        <v>368305.0902123422</v>
       </c>
     </row>
     <row r="4">
@@ -26518,28 +26518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.0933480969613</v>
+        <v>269.7632582493725</v>
       </c>
       <c r="AB4" t="n">
-        <v>331.2427992708405</v>
+        <v>369.1019910518079</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.6294514107186</v>
+        <v>333.8754150637207</v>
       </c>
       <c r="AD4" t="n">
-        <v>242093.3480969613</v>
+        <v>269763.2582493725</v>
       </c>
       <c r="AE4" t="n">
-        <v>331242.7992708405</v>
+        <v>369101.9910518079</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.804986247227849e-06</v>
+        <v>7.098888101105468e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.048611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>299629.4514107186</v>
+        <v>333875.4150637207</v>
       </c>
     </row>
     <row r="5">
@@ -26624,28 +26624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.4862592369813</v>
+        <v>246.2414207354097</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.9425388213749</v>
+        <v>336.918375254812</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.4118824848395</v>
+        <v>304.7633583885026</v>
       </c>
       <c r="AD5" t="n">
-        <v>218486.2592369813</v>
+        <v>246241.4207354097</v>
       </c>
       <c r="AE5" t="n">
-        <v>298942.5388213749</v>
+        <v>336918.375254812</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.94186698588079e-06</v>
+        <v>7.35426380649779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.838888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>270411.8824848395</v>
+        <v>304763.3583885026</v>
       </c>
     </row>
     <row r="6">
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.0211960840944</v>
+        <v>236.7763575825227</v>
       </c>
       <c r="AB6" t="n">
-        <v>285.9920218464857</v>
+        <v>323.9678582799228</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.6973446738649</v>
+        <v>293.048820577528</v>
       </c>
       <c r="AD6" t="n">
-        <v>209021.1960840944</v>
+        <v>236776.3575825227</v>
       </c>
       <c r="AE6" t="n">
-        <v>285992.0218464857</v>
+        <v>323967.8582799229</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.021575987445034e-06</v>
+        <v>7.502975325013175e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.723611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>258697.3446738649</v>
+        <v>293048.820577528</v>
       </c>
     </row>
     <row r="7">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.992498749643</v>
+        <v>228.7476602480714</v>
       </c>
       <c r="AB7" t="n">
-        <v>275.0068039523667</v>
+        <v>312.9826403858038</v>
       </c>
       <c r="AC7" t="n">
-        <v>248.7605405577069</v>
+        <v>283.11201646137</v>
       </c>
       <c r="AD7" t="n">
-        <v>200992.498749643</v>
+        <v>228747.6602480714</v>
       </c>
       <c r="AE7" t="n">
-        <v>275006.8039523667</v>
+        <v>312982.6403858038</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.080570591513372e-06</v>
+        <v>7.613040399007929e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.640277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>248760.5405577069</v>
+        <v>283112.01646137</v>
       </c>
     </row>
     <row r="8">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>199.1139943455647</v>
+        <v>226.8691558439931</v>
       </c>
       <c r="AB8" t="n">
-        <v>272.4365513529428</v>
+        <v>310.4123877863798</v>
       </c>
       <c r="AC8" t="n">
-        <v>246.435589258999</v>
+        <v>280.7870651626622</v>
       </c>
       <c r="AD8" t="n">
-        <v>199113.9943455647</v>
+        <v>226869.1558439931</v>
       </c>
       <c r="AE8" t="n">
-        <v>272436.5513529428</v>
+        <v>310412.3877863798</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.09449066663062e-06</v>
+        <v>7.639010809725791e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.620833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>246435.589258999</v>
+        <v>280787.0651626622</v>
       </c>
     </row>
   </sheetData>
@@ -50700,28 +50700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.5162392154583</v>
+        <v>346.3835298014291</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.8620175042376</v>
+        <v>473.9372268371466</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.3137828512191</v>
+        <v>428.7053230828841</v>
       </c>
       <c r="AD2" t="n">
-        <v>310516.2392154583</v>
+        <v>346383.5298014291</v>
       </c>
       <c r="AE2" t="n">
-        <v>424862.0175042376</v>
+        <v>473937.2268371466</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.149586453949387e-06</v>
+        <v>6.056771548973324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.559722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>384313.7828512191</v>
+        <v>428705.3230828841</v>
       </c>
     </row>
     <row r="3">
@@ -50806,28 +50806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.7536379995375</v>
+        <v>252.5688545929946</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.8860870584224</v>
+        <v>345.575849405436</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.406432434004</v>
+        <v>312.5945753570351</v>
       </c>
       <c r="AD3" t="n">
-        <v>225753.6379995375</v>
+        <v>252568.8545929946</v>
       </c>
       <c r="AE3" t="n">
-        <v>308886.0870584224</v>
+        <v>345575.849405436</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.828085511519281e-06</v>
+        <v>7.361550397873145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.219444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>279406.432434004</v>
+        <v>312594.5753570351</v>
       </c>
     </row>
     <row r="4">
@@ -50912,28 +50912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.2818115808608</v>
+        <v>222.1822795203385</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.1931898303057</v>
+        <v>303.9995968299685</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.6926468009767</v>
+        <v>274.98630197472</v>
       </c>
       <c r="AD4" t="n">
-        <v>195281.8115808608</v>
+        <v>222182.2795203385</v>
       </c>
       <c r="AE4" t="n">
-        <v>267193.1898303057</v>
+        <v>303999.5968299685</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.064651630631575e-06</v>
+        <v>7.816475817651255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.856944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>241692.6468009767</v>
+        <v>274986.30197472</v>
       </c>
     </row>
     <row r="5">
@@ -51018,28 +51018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.3863867592075</v>
+        <v>210.2868546986852</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.9173448002225</v>
+        <v>287.7237517998853</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.9701455772675</v>
+        <v>260.2638007510108</v>
       </c>
       <c r="AD5" t="n">
-        <v>183386.3867592075</v>
+        <v>210286.8546986852</v>
       </c>
       <c r="AE5" t="n">
-        <v>250917.3448002225</v>
+        <v>287723.7517998853</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.179163346259844e-06</v>
+        <v>8.036686093311962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.697222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>226970.1455772675</v>
+        <v>260263.8007510108</v>
       </c>
     </row>
     <row r="6">
@@ -51124,28 +51124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.2356770814129</v>
+        <v>209.1361450208906</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.3428930533366</v>
+        <v>286.1493000529994</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.5459572953469</v>
+        <v>258.8396124690903</v>
       </c>
       <c r="AD6" t="n">
-        <v>182235.6770814129</v>
+        <v>209136.1450208906</v>
       </c>
       <c r="AE6" t="n">
-        <v>249342.8930533366</v>
+        <v>286149.3000529994</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.193734447799369e-06</v>
+        <v>8.064706861921483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.677777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>225545.9572953469</v>
+        <v>258839.6124690903</v>
       </c>
     </row>
   </sheetData>
@@ -51421,28 +51421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.5676001128607</v>
+        <v>200.6885490171477</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.2193359701741</v>
+        <v>274.590926519051</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.2931396952058</v>
+        <v>248.3843538829391</v>
       </c>
       <c r="AD2" t="n">
-        <v>175567.6001128607</v>
+        <v>200688.5490171477</v>
       </c>
       <c r="AE2" t="n">
-        <v>240219.3359701741</v>
+        <v>274590.926519051</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.997020967357564e-06</v>
+        <v>8.244252734744365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.393055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>217293.1396952058</v>
+        <v>248384.3538829391</v>
       </c>
     </row>
     <row r="3">
@@ -51527,28 +51527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.704786656816</v>
+        <v>182.1423719480828</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.4644494959428</v>
+        <v>249.2152288535825</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.0460880002563</v>
+        <v>225.4304771876396</v>
       </c>
       <c r="AD3" t="n">
-        <v>148704.786656816</v>
+        <v>182142.3719480828</v>
       </c>
       <c r="AE3" t="n">
-        <v>203464.4494959428</v>
+        <v>249215.2288535825</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.292878531135458e-06</v>
+        <v>8.854488345012683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.952777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>184046.0880002563</v>
+        <v>225430.4771876396</v>
       </c>
     </row>
   </sheetData>
@@ -51824,28 +51824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>817.403284358818</v>
+        <v>866.9545037183059</v>
       </c>
       <c r="AB2" t="n">
-        <v>1118.407234947563</v>
+        <v>1186.20539932073</v>
       </c>
       <c r="AC2" t="n">
-        <v>1011.66801813858</v>
+        <v>1072.995620859293</v>
       </c>
       <c r="AD2" t="n">
-        <v>817403.2843588181</v>
+        <v>866954.5037183058</v>
       </c>
       <c r="AE2" t="n">
-        <v>1118407.234947563</v>
+        <v>1186205.39932073</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.916755287403311e-06</v>
+        <v>3.367663428234914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1011668.01813858</v>
+        <v>1072995.620859293</v>
       </c>
     </row>
     <row r="3">
@@ -51930,28 +51930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>413.5490569806378</v>
+        <v>453.0193686607952</v>
       </c>
       <c r="AB3" t="n">
-        <v>565.8360642576718</v>
+        <v>619.841086005719</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.8334644408227</v>
+        <v>560.6843227097604</v>
       </c>
       <c r="AD3" t="n">
-        <v>413549.0569806378</v>
+        <v>453019.3686607952</v>
       </c>
       <c r="AE3" t="n">
-        <v>565836.0642576717</v>
+        <v>619841.086005719</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.896597759120761e-06</v>
+        <v>5.089207998436402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.377777777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>511833.4644408227</v>
+        <v>560684.3227097604</v>
       </c>
     </row>
     <row r="4">
@@ -52036,28 +52036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.8402512729466</v>
+        <v>372.6562700380804</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.0891568360607</v>
+        <v>509.8847491004291</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.3199460783929</v>
+        <v>461.2220642740232</v>
       </c>
       <c r="AD4" t="n">
-        <v>342840.2512729466</v>
+        <v>372656.2700380804</v>
       </c>
       <c r="AE4" t="n">
-        <v>469089.1568360607</v>
+        <v>509884.7491004291</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.243266271805971e-06</v>
+        <v>5.698290899922576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.588888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>424319.9460783929</v>
+        <v>461222.0642740232</v>
       </c>
     </row>
     <row r="5">
@@ -52142,28 +52142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>317.0391542230848</v>
+        <v>346.6845807876264</v>
       </c>
       <c r="AB5" t="n">
-        <v>433.7869575883726</v>
+        <v>474.349138077894</v>
       </c>
       <c r="AC5" t="n">
-        <v>392.3869391799564</v>
+        <v>429.0779220929357</v>
       </c>
       <c r="AD5" t="n">
-        <v>317039.1542230849</v>
+        <v>346684.5807876264</v>
       </c>
       <c r="AE5" t="n">
-        <v>433786.9575883726</v>
+        <v>474349.138077894</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.424063210290268e-06</v>
+        <v>6.015943988802404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.241666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>392386.9391799563</v>
+        <v>429077.9220929357</v>
       </c>
     </row>
     <row r="6">
@@ -52248,28 +52248,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>301.8560936970288</v>
+        <v>331.5015202615704</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.0128243472665</v>
+        <v>453.5750048367879</v>
       </c>
       <c r="AC6" t="n">
-        <v>373.5954600587023</v>
+        <v>410.2864429716817</v>
       </c>
       <c r="AD6" t="n">
-        <v>301856.0936970288</v>
+        <v>331501.5202615704</v>
       </c>
       <c r="AE6" t="n">
-        <v>413012.8243472665</v>
+        <v>453575.0048367879</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.537465204897014e-06</v>
+        <v>6.215186819870008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>373595.4600587023</v>
+        <v>410286.4429716817</v>
       </c>
     </row>
     <row r="7">
@@ -52354,28 +52354,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>281.9338160188856</v>
+        <v>311.6644939294478</v>
       </c>
       <c r="AB7" t="n">
-        <v>385.7542851191702</v>
+        <v>426.4331102613409</v>
       </c>
       <c r="AC7" t="n">
-        <v>348.9384375569353</v>
+        <v>385.7349327206269</v>
       </c>
       <c r="AD7" t="n">
-        <v>281933.8160188856</v>
+        <v>311664.4939294478</v>
       </c>
       <c r="AE7" t="n">
-        <v>385754.2851191702</v>
+        <v>426433.1102613409</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.611014938169775e-06</v>
+        <v>6.344410799856866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.918055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>348938.4375569353</v>
+        <v>385734.9327206269</v>
       </c>
     </row>
     <row r="8">
@@ -52460,28 +52460,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>274.5317496891017</v>
+        <v>304.2624275996638</v>
       </c>
       <c r="AB8" t="n">
-        <v>375.6264514106404</v>
+        <v>416.3052765528112</v>
       </c>
       <c r="AC8" t="n">
-        <v>339.7771900830438</v>
+        <v>376.5736852467354</v>
       </c>
       <c r="AD8" t="n">
-        <v>274531.7496891016</v>
+        <v>304262.4275996638</v>
       </c>
       <c r="AE8" t="n">
-        <v>375626.4514106404</v>
+        <v>416305.2765528111</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.665023215112744e-06</v>
+        <v>6.439301211939265e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.830555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>339777.1900830438</v>
+        <v>376573.6852467353</v>
       </c>
     </row>
     <row r="9">
@@ -52566,28 +52566,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>268.6779608790476</v>
+        <v>298.4086387896098</v>
       </c>
       <c r="AB9" t="n">
-        <v>367.6170393097887</v>
+        <v>408.2958644519595</v>
       </c>
       <c r="AC9" t="n">
-        <v>332.5321850318169</v>
+        <v>369.3286801955085</v>
       </c>
       <c r="AD9" t="n">
-        <v>268677.9608790476</v>
+        <v>298408.6387896098</v>
       </c>
       <c r="AE9" t="n">
-        <v>367617.0393097887</v>
+        <v>408295.8644519595</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.704106127772329e-06</v>
+        <v>6.507968347748182e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.769444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>332532.1850318169</v>
+        <v>369328.6801955085</v>
       </c>
     </row>
     <row r="10">
@@ -52672,28 +52672,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>263.2422005022216</v>
+        <v>292.9728784127838</v>
       </c>
       <c r="AB10" t="n">
-        <v>360.1795921533923</v>
+        <v>400.858417295563</v>
       </c>
       <c r="AC10" t="n">
-        <v>325.8045573935044</v>
+        <v>362.6010525571959</v>
       </c>
       <c r="AD10" t="n">
-        <v>263242.2005022216</v>
+        <v>292972.8784127838</v>
       </c>
       <c r="AE10" t="n">
-        <v>360179.5921533923</v>
+        <v>400858.417295563</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.739803906264547e-06</v>
+        <v>6.570687936361049e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.713888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>325804.5573935044</v>
+        <v>362601.0525571959</v>
       </c>
     </row>
     <row r="11">
@@ -52778,28 +52778,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>258.7610125098167</v>
+        <v>288.4916904203789</v>
       </c>
       <c r="AB11" t="n">
-        <v>354.0482330461226</v>
+        <v>394.7270581882932</v>
       </c>
       <c r="AC11" t="n">
-        <v>320.2583665940158</v>
+        <v>357.0548617577074</v>
       </c>
       <c r="AD11" t="n">
-        <v>258761.0125098168</v>
+        <v>288491.6904203789</v>
       </c>
       <c r="AE11" t="n">
-        <v>354048.2330461225</v>
+        <v>394727.0581882932</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.765038542784908e-06</v>
+        <v>6.615024197277043e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.676388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>320258.3665940158</v>
+        <v>357054.8617577074</v>
       </c>
     </row>
     <row r="12">
@@ -52884,28 +52884,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>254.8133531359198</v>
+        <v>284.5440310464852</v>
       </c>
       <c r="AB12" t="n">
-        <v>348.6468713321519</v>
+        <v>389.3256964744917</v>
       </c>
       <c r="AC12" t="n">
-        <v>315.3725032612726</v>
+        <v>352.1689984250123</v>
       </c>
       <c r="AD12" t="n">
-        <v>254813.3531359198</v>
+        <v>284544.0310464852</v>
       </c>
       <c r="AE12" t="n">
-        <v>348646.8713321519</v>
+        <v>389325.6964744917</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.785810956993742e-06</v>
+        <v>6.651520509616427e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.644444444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>315372.5032612726</v>
+        <v>352168.9984250123</v>
       </c>
     </row>
     <row r="13">
@@ -52990,28 +52990,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>251.484618029541</v>
+        <v>281.2152959401063</v>
       </c>
       <c r="AB13" t="n">
-        <v>344.0923491061782</v>
+        <v>384.7711742485156</v>
       </c>
       <c r="AC13" t="n">
-        <v>311.2526582442322</v>
+        <v>348.0491534079713</v>
       </c>
       <c r="AD13" t="n">
-        <v>251484.618029541</v>
+        <v>281215.2959401063</v>
       </c>
       <c r="AE13" t="n">
-        <v>344092.3491061782</v>
+        <v>384771.1742485156</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.800428581807366e-06</v>
+        <v>6.677203099781179e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.623611111111112</v>
       </c>
       <c r="AH13" t="n">
-        <v>311252.6582442322</v>
+        <v>348049.1534079713</v>
       </c>
     </row>
     <row r="14">
@@ -53096,28 +53096,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>248.2286979224639</v>
+        <v>277.9593758330292</v>
       </c>
       <c r="AB14" t="n">
-        <v>339.63745557462</v>
+        <v>380.3162807169552</v>
       </c>
       <c r="AC14" t="n">
-        <v>307.2229334988423</v>
+        <v>344.0194286625807</v>
       </c>
       <c r="AD14" t="n">
-        <v>248228.6979224639</v>
+        <v>277959.3758330292</v>
       </c>
       <c r="AE14" t="n">
-        <v>339637.45557462</v>
+        <v>380316.2807169552</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.81489233688611e-06</v>
+        <v>6.702615346891565e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.601388888888888</v>
       </c>
       <c r="AH14" t="n">
-        <v>307222.9334988423</v>
+        <v>344019.4286625807</v>
       </c>
     </row>
     <row r="15">
@@ -53202,28 +53202,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>244.9242770703734</v>
+        <v>274.6549549809386</v>
       </c>
       <c r="AB15" t="n">
-        <v>335.1162011840328</v>
+        <v>375.7950263263656</v>
       </c>
       <c r="AC15" t="n">
-        <v>303.1331812816708</v>
+        <v>339.9296764454086</v>
       </c>
       <c r="AD15" t="n">
-        <v>244924.2770703734</v>
+        <v>274654.9549809386</v>
       </c>
       <c r="AE15" t="n">
-        <v>335116.2011840328</v>
+        <v>375795.0263263657</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.829202222229974e-06</v>
+        <v>6.727757250947586e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.580555555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>303133.1812816708</v>
+        <v>339929.6764454085</v>
       </c>
     </row>
     <row r="16">
@@ -53308,28 +53308,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>242.250385467324</v>
+        <v>271.9810633778891</v>
       </c>
       <c r="AB16" t="n">
-        <v>331.4576647289703</v>
+        <v>372.1364898713013</v>
       </c>
       <c r="AC16" t="n">
-        <v>299.8238104110902</v>
+        <v>336.6203055748273</v>
       </c>
       <c r="AD16" t="n">
-        <v>242250.385467324</v>
+        <v>271981.0633778891</v>
       </c>
       <c r="AE16" t="n">
-        <v>331457.6647289703</v>
+        <v>372136.4898713013</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.836434099769346e-06</v>
+        <v>6.74046337450278e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.570833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>299823.8104110902</v>
+        <v>336620.3055748274</v>
       </c>
     </row>
     <row r="17">
@@ -53414,28 +53414,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>241.9667376591021</v>
+        <v>271.6974155696673</v>
       </c>
       <c r="AB17" t="n">
-        <v>331.0695652841032</v>
+        <v>371.748390426434</v>
       </c>
       <c r="AC17" t="n">
-        <v>299.4727506325402</v>
+        <v>336.2692457962772</v>
       </c>
       <c r="AD17" t="n">
-        <v>241966.7376591021</v>
+        <v>271697.4155696673</v>
       </c>
       <c r="AE17" t="n">
-        <v>331069.5652841033</v>
+        <v>371748.390426434</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.843973716778478e-06</v>
+        <v>6.753710184166704e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.559722222222223</v>
       </c>
       <c r="AH17" t="n">
-        <v>299472.7506325401</v>
+        <v>336269.2457962772</v>
       </c>
     </row>
   </sheetData>
@@ -53711,28 +53711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.120147445499</v>
+        <v>1351.925494852408</v>
       </c>
       <c r="AB2" t="n">
-        <v>1751.516860650038</v>
+        <v>1849.764104800524</v>
       </c>
       <c r="AC2" t="n">
-        <v>1584.354549738951</v>
+        <v>1673.225214798588</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280120.147445499</v>
+        <v>1351925.494852408</v>
       </c>
       <c r="AE2" t="n">
-        <v>1751516.860650038</v>
+        <v>1849764.104800524</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.48659284733774e-06</v>
+        <v>2.541908099479463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1584354.549738951</v>
+        <v>1673225.214798588</v>
       </c>
     </row>
     <row r="3">
@@ -53817,28 +53817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>526.0609519230202</v>
+        <v>567.0073276666618</v>
       </c>
       <c r="AB3" t="n">
-        <v>719.7798025923255</v>
+        <v>775.8044403113827</v>
       </c>
       <c r="AC3" t="n">
-        <v>651.085028450211</v>
+        <v>701.7627533764341</v>
       </c>
       <c r="AD3" t="n">
-        <v>526060.9519230202</v>
+        <v>567007.3276666618</v>
       </c>
       <c r="AE3" t="n">
-        <v>719779.8025923255</v>
+        <v>775804.4403113826</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560688058400437e-06</v>
+        <v>4.378491210653335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.041666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>651085.0284502109</v>
+        <v>701762.7533764341</v>
       </c>
     </row>
     <row r="4">
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>410.6323741435744</v>
+        <v>451.578660378665</v>
       </c>
       <c r="AB4" t="n">
-        <v>561.8453301250362</v>
+        <v>617.8698453745449</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.2236003727754</v>
+        <v>558.901214517772</v>
       </c>
       <c r="AD4" t="n">
-        <v>410632.3741435744</v>
+        <v>451578.660378665</v>
       </c>
       <c r="AE4" t="n">
-        <v>561845.3301250362</v>
+        <v>617869.8453745448</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.957320400972595e-06</v>
+        <v>5.056688314793327e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.963888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>508223.6003727754</v>
+        <v>558901.214517772</v>
       </c>
     </row>
     <row r="5">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.9350467751593</v>
+        <v>404.7941079469775</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.6344278477483</v>
+        <v>553.8571567487259</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.8047561373879</v>
+        <v>500.9978070520282</v>
       </c>
       <c r="AD5" t="n">
-        <v>373935.0467751593</v>
+        <v>404794.1079469775</v>
       </c>
       <c r="AE5" t="n">
-        <v>511634.4278477483</v>
+        <v>553857.1567487258</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.160752017424558e-06</v>
+        <v>5.404533708019521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.515277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>462804.7561373879</v>
+        <v>500997.8070520282</v>
       </c>
     </row>
     <row r="6">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>353.5140638597977</v>
+        <v>384.2025328310237</v>
       </c>
       <c r="AB6" t="n">
-        <v>483.6935381127674</v>
+        <v>525.6828552388978</v>
       </c>
       <c r="AC6" t="n">
-        <v>437.5305057034286</v>
+        <v>475.512421335418</v>
       </c>
       <c r="AD6" t="n">
-        <v>353514.0638597977</v>
+        <v>384202.5328310237</v>
       </c>
       <c r="AE6" t="n">
-        <v>483693.5381127674</v>
+        <v>525682.8552388978</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.287970914593496e-06</v>
+        <v>5.622063844599751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.263888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>437530.5057034286</v>
+        <v>475512.421335418</v>
       </c>
     </row>
     <row r="7">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>340.2506750424528</v>
+        <v>370.939144013679</v>
       </c>
       <c r="AB7" t="n">
-        <v>465.5459843934587</v>
+        <v>507.5353015195892</v>
       </c>
       <c r="AC7" t="n">
-        <v>421.114929040839</v>
+        <v>459.0968446728284</v>
       </c>
       <c r="AD7" t="n">
-        <v>340250.6750424528</v>
+        <v>370939.144013679</v>
       </c>
       <c r="AE7" t="n">
-        <v>465545.9843934587</v>
+        <v>507535.3015195892</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.37515589307291e-06</v>
+        <v>5.771140441696691e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.101388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>421114.929040839</v>
+        <v>459096.8446728284</v>
       </c>
     </row>
     <row r="8">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>331.7883119240512</v>
+        <v>362.4767808952773</v>
       </c>
       <c r="AB8" t="n">
-        <v>453.9674058417493</v>
+        <v>495.9567229678798</v>
       </c>
       <c r="AC8" t="n">
-        <v>410.6413937754677</v>
+        <v>448.6233094074571</v>
       </c>
       <c r="AD8" t="n">
-        <v>331788.3119240512</v>
+        <v>362476.7808952773</v>
       </c>
       <c r="AE8" t="n">
-        <v>453967.4058417493</v>
+        <v>495956.7229678798</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.430758557919473e-06</v>
+        <v>5.866214802090148e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.002777777777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>410641.3937754678</v>
+        <v>448623.3094074571</v>
       </c>
     </row>
     <row r="9">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.3639122143852</v>
+        <v>344.1376325316319</v>
       </c>
       <c r="AB9" t="n">
-        <v>428.7583293318357</v>
+        <v>470.8642911106155</v>
       </c>
       <c r="AC9" t="n">
-        <v>387.8382361464992</v>
+        <v>425.9256640292008</v>
       </c>
       <c r="AD9" t="n">
-        <v>313363.9122143852</v>
+        <v>344137.6325316319</v>
       </c>
       <c r="AE9" t="n">
-        <v>428758.3293318357</v>
+        <v>470864.2911106155</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.485471580128493e-06</v>
+        <v>5.959767972717309e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.908333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>387838.2361464992</v>
+        <v>425925.6640292008</v>
       </c>
     </row>
     <row r="10">
@@ -54559,28 +54559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>308.3550299129244</v>
+        <v>339.1287502301711</v>
       </c>
       <c r="AB10" t="n">
-        <v>421.9049555906855</v>
+        <v>464.0109173694653</v>
       </c>
       <c r="AC10" t="n">
-        <v>381.638938776434</v>
+        <v>419.7263666591355</v>
       </c>
       <c r="AD10" t="n">
-        <v>308355.0299129243</v>
+        <v>339128.7502301711</v>
       </c>
       <c r="AE10" t="n">
-        <v>421904.9555906855</v>
+        <v>464010.9173694653</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.517202167534265e-06</v>
+        <v>6.01402374104851e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.855555555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>381638.938776434</v>
+        <v>419726.3666591354</v>
       </c>
     </row>
     <row r="11">
@@ -54665,28 +54665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>303.6848954193413</v>
+        <v>334.4586157365879</v>
       </c>
       <c r="AB11" t="n">
-        <v>415.5150715447722</v>
+        <v>457.6210333235521</v>
       </c>
       <c r="AC11" t="n">
-        <v>375.858896295604</v>
+        <v>413.9463241783056</v>
       </c>
       <c r="AD11" t="n">
-        <v>303684.8954193413</v>
+        <v>334458.615736588</v>
       </c>
       <c r="AE11" t="n">
-        <v>415515.0715447722</v>
+        <v>457621.0333235521</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.545819005708631e-06</v>
+        <v>6.062955345197675e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.808333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>375858.8962956041</v>
+        <v>413946.3241783056</v>
       </c>
     </row>
     <row r="12">
@@ -54771,28 +54771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>299.2391221914665</v>
+        <v>330.0128425087132</v>
       </c>
       <c r="AB12" t="n">
-        <v>409.4321684807216</v>
+        <v>451.5381302595014</v>
       </c>
       <c r="AC12" t="n">
-        <v>370.3565369625784</v>
+        <v>408.4439648452799</v>
       </c>
       <c r="AD12" t="n">
-        <v>299239.1221914665</v>
+        <v>330012.8425087132</v>
       </c>
       <c r="AE12" t="n">
-        <v>409432.1684807216</v>
+        <v>451538.1302595014</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.574139296337147e-06</v>
+        <v>6.111379886091408e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.76111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>370356.5369625784</v>
+        <v>408443.9648452799</v>
       </c>
     </row>
     <row r="13">
@@ -54877,28 +54877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>295.0619088076094</v>
+        <v>325.8356291248561</v>
       </c>
       <c r="AB13" t="n">
-        <v>403.71672084328</v>
+        <v>445.8226826220599</v>
       </c>
       <c r="AC13" t="n">
-        <v>365.1865636259732</v>
+        <v>403.2739915086747</v>
       </c>
       <c r="AD13" t="n">
-        <v>295061.9088076094</v>
+        <v>325835.6291248561</v>
       </c>
       <c r="AE13" t="n">
-        <v>403716.72084328</v>
+        <v>445822.6826220599</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.597270004913318e-06</v>
+        <v>6.150930820015087e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.725</v>
       </c>
       <c r="AH13" t="n">
-        <v>365186.5636259732</v>
+        <v>403273.9915086747</v>
       </c>
     </row>
     <row r="14">
@@ -54983,28 +54983,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>292.6927694695826</v>
+        <v>323.4664897868293</v>
       </c>
       <c r="AB14" t="n">
-        <v>400.4751598819408</v>
+        <v>442.5811216607206</v>
       </c>
       <c r="AC14" t="n">
-        <v>362.2543726932247</v>
+        <v>400.3418005759263</v>
       </c>
       <c r="AD14" t="n">
-        <v>292692.7694695827</v>
+        <v>323466.4897868293</v>
       </c>
       <c r="AE14" t="n">
-        <v>400475.1598819409</v>
+        <v>442581.1216607206</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.608390537882631e-06</v>
+        <v>6.169945692093779e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.706944444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>362254.3726932247</v>
+        <v>400341.8005759263</v>
       </c>
     </row>
     <row r="15">
@@ -55089,28 +55089,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>289.2589101539434</v>
+        <v>320.0326304711901</v>
       </c>
       <c r="AB15" t="n">
-        <v>395.776802075102</v>
+        <v>437.8827638538818</v>
       </c>
       <c r="AC15" t="n">
-        <v>358.004419561284</v>
+        <v>396.0918474439855</v>
       </c>
       <c r="AD15" t="n">
-        <v>289258.9101539434</v>
+        <v>320032.6304711901</v>
       </c>
       <c r="AE15" t="n">
-        <v>395776.8020751019</v>
+        <v>437882.7638538818</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.623069641402123e-06</v>
+        <v>6.19504532323765e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.684722222222223</v>
       </c>
       <c r="AH15" t="n">
-        <v>358004.419561284</v>
+        <v>396091.8474439855</v>
       </c>
     </row>
     <row r="16">
@@ -55195,28 +55195,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>286.5613281307292</v>
+        <v>317.3350484479759</v>
       </c>
       <c r="AB16" t="n">
-        <v>392.0858513420206</v>
+        <v>434.1918131208004</v>
       </c>
       <c r="AC16" t="n">
-        <v>354.665727985886</v>
+        <v>392.7531558685876</v>
       </c>
       <c r="AD16" t="n">
-        <v>286561.3281307292</v>
+        <v>317335.0484479758</v>
       </c>
       <c r="AE16" t="n">
-        <v>392085.8513420206</v>
+        <v>434191.8131208004</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.637897018694541e-06</v>
+        <v>6.22039848600924e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.661111111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>354665.7279858859</v>
+        <v>392753.1558685875</v>
       </c>
     </row>
     <row r="17">
@@ -55301,28 +55301,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>283.7945071477466</v>
+        <v>314.5682274649933</v>
       </c>
       <c r="AB17" t="n">
-        <v>388.3001648095769</v>
+        <v>430.4061265883567</v>
       </c>
       <c r="AC17" t="n">
-        <v>351.2413420628542</v>
+        <v>389.3287699455558</v>
       </c>
       <c r="AD17" t="n">
-        <v>283794.5071477466</v>
+        <v>314568.2274649933</v>
       </c>
       <c r="AE17" t="n">
-        <v>388300.1648095769</v>
+        <v>430406.1265883567</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.649907194301398e-06</v>
+        <v>6.240934547854226e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.641666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>351241.3420628543</v>
+        <v>389328.7699455558</v>
       </c>
     </row>
     <row r="18">
@@ -55407,28 +55407,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>281.4229301600646</v>
+        <v>312.1966504773112</v>
       </c>
       <c r="AB18" t="n">
-        <v>385.0552685484378</v>
+        <v>427.1612303272177</v>
       </c>
       <c r="AC18" t="n">
-        <v>348.3061341466378</v>
+        <v>386.3935620293394</v>
       </c>
       <c r="AD18" t="n">
-        <v>281422.9301600646</v>
+        <v>312196.6504773112</v>
       </c>
       <c r="AE18" t="n">
-        <v>385055.2685484377</v>
+        <v>427161.2303272177</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.659989810860242e-06</v>
+        <v>6.258174698538906e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.626388888888888</v>
       </c>
       <c r="AH18" t="n">
-        <v>348306.1341466378</v>
+        <v>386393.5620293394</v>
       </c>
     </row>
     <row r="19">
@@ -55513,28 +55513,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>278.7902340480269</v>
+        <v>309.5639543652737</v>
       </c>
       <c r="AB19" t="n">
-        <v>381.4530975815927</v>
+        <v>423.5590593603725</v>
       </c>
       <c r="AC19" t="n">
-        <v>345.0477493211897</v>
+        <v>383.1351772038912</v>
       </c>
       <c r="AD19" t="n">
-        <v>278790.234048027</v>
+        <v>309563.9543652736</v>
       </c>
       <c r="AE19" t="n">
-        <v>381453.0975815927</v>
+        <v>423559.0593603725</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.666958678187678e-06</v>
+        <v>6.270090685041552e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.616666666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>345047.7493211897</v>
+        <v>383135.1772038912</v>
       </c>
     </row>
     <row r="20">
@@ -55619,28 +55619,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>275.846349007733</v>
+        <v>306.6200693249796</v>
       </c>
       <c r="AB20" t="n">
-        <v>377.4251441944206</v>
+        <v>419.5311059732003</v>
       </c>
       <c r="AC20" t="n">
-        <v>341.4042181520211</v>
+        <v>379.4916460347227</v>
       </c>
       <c r="AD20" t="n">
-        <v>275846.3490077329</v>
+        <v>306620.0693249796</v>
       </c>
       <c r="AE20" t="n">
-        <v>377425.1441944205</v>
+        <v>419531.1059732003</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.67555855701728e-06</v>
+        <v>6.284795519449074e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.602777777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>341404.2181520211</v>
+        <v>379491.6460347227</v>
       </c>
     </row>
     <row r="21">
@@ -55725,28 +55725,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>273.3641869114498</v>
+        <v>304.1379072286965</v>
       </c>
       <c r="AB21" t="n">
-        <v>374.0289405090228</v>
+        <v>416.1349022878026</v>
       </c>
       <c r="AC21" t="n">
-        <v>338.332143379756</v>
+        <v>376.4195712624575</v>
       </c>
       <c r="AD21" t="n">
-        <v>273364.1869114498</v>
+        <v>304137.9072286965</v>
       </c>
       <c r="AE21" t="n">
-        <v>374028.9405090228</v>
+        <v>416134.9022878026</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.683417066982261e-06</v>
+        <v>6.298232695718016e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>338332.143379756</v>
+        <v>376419.5712624575</v>
       </c>
     </row>
     <row r="22">
@@ -55831,28 +55831,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>271.8720446363401</v>
+        <v>302.6457649535868</v>
       </c>
       <c r="AB22" t="n">
-        <v>371.9873256195464</v>
+        <v>414.0932873983263</v>
       </c>
       <c r="AC22" t="n">
-        <v>336.4853773499067</v>
+        <v>374.5728052326083</v>
       </c>
       <c r="AD22" t="n">
-        <v>271872.0446363401</v>
+        <v>302645.7649535868</v>
       </c>
       <c r="AE22" t="n">
-        <v>371987.3256195464</v>
+        <v>414093.2873983263</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.688754922807531e-06</v>
+        <v>6.307359834315788e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>336485.3773499067</v>
+        <v>374572.8052326083</v>
       </c>
     </row>
     <row r="23">
@@ -55937,28 +55937,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>270.2151589582297</v>
+        <v>300.9888792754764</v>
       </c>
       <c r="AB23" t="n">
-        <v>369.7203015381186</v>
+        <v>411.8262633168984</v>
       </c>
       <c r="AC23" t="n">
-        <v>334.4347148650221</v>
+        <v>372.5221427477236</v>
       </c>
       <c r="AD23" t="n">
-        <v>270215.1589582297</v>
+        <v>300988.8792754764</v>
       </c>
       <c r="AE23" t="n">
-        <v>369720.3015381186</v>
+        <v>411826.2633168984</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.697354801637133e-06</v>
+        <v>6.322064668723309e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.569444444444445</v>
       </c>
       <c r="AH23" t="n">
-        <v>334434.7148650221</v>
+        <v>372522.1427477236</v>
       </c>
     </row>
     <row r="24">
@@ -56043,28 +56043,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>269.8742778846154</v>
+        <v>300.647998201862</v>
       </c>
       <c r="AB24" t="n">
-        <v>369.2538930145878</v>
+        <v>411.3598547933677</v>
       </c>
       <c r="AC24" t="n">
-        <v>334.0128197163686</v>
+        <v>372.1002475990702</v>
       </c>
       <c r="AD24" t="n">
-        <v>269874.2778846154</v>
+        <v>300647.998201862</v>
       </c>
       <c r="AE24" t="n">
-        <v>369253.8930145879</v>
+        <v>411359.8547933677</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.696316885226665e-06</v>
+        <v>6.320289947329298e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.570833333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>334012.8197163686</v>
+        <v>372100.2475990702</v>
       </c>
     </row>
     <row r="25">
@@ -56149,28 +56149,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>270.9376944262665</v>
+        <v>301.7114147435132</v>
       </c>
       <c r="AB25" t="n">
-        <v>370.7089064415017</v>
+        <v>412.8148682202815</v>
       </c>
       <c r="AC25" t="n">
-        <v>335.3289687039419</v>
+        <v>373.4163965866435</v>
       </c>
       <c r="AD25" t="n">
-        <v>270937.6944262665</v>
+        <v>301711.4147435132</v>
       </c>
       <c r="AE25" t="n">
-        <v>370708.9064415017</v>
+        <v>412814.8682202815</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.695278968816195e-06</v>
+        <v>6.318515225935286e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.572222222222222</v>
       </c>
       <c r="AH25" t="n">
-        <v>335328.968703942</v>
+        <v>373416.3965866435</v>
       </c>
     </row>
   </sheetData>
@@ -56446,28 +56446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.5096486464847</v>
+        <v>163.8381827007055</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.8832560093549</v>
+        <v>224.170629601496</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.6656259622084</v>
+        <v>202.7760993378484</v>
       </c>
       <c r="AD2" t="n">
-        <v>139509.6486464847</v>
+        <v>163838.1827007055</v>
       </c>
       <c r="AE2" t="n">
-        <v>190883.2560093549</v>
+        <v>224170.629601496</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229994134318391e-06</v>
+        <v>9.066825724794439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.255555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>172665.6259622084</v>
+        <v>202776.0993378484</v>
       </c>
     </row>
   </sheetData>
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.4127104094706</v>
+        <v>504.218589430296</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.8522500068157</v>
+        <v>689.8941186127556</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.121789655314</v>
+        <v>624.0515922048304</v>
       </c>
       <c r="AD2" t="n">
-        <v>457412.7104094706</v>
+        <v>504218.589430296</v>
       </c>
       <c r="AE2" t="n">
-        <v>625852.2500068157</v>
+        <v>689894.1186127557</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.602508030658429e-06</v>
+        <v>4.794945468554597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.715277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>566121.7896553141</v>
+        <v>624051.5922048304</v>
       </c>
     </row>
     <row r="3">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.5088286220598</v>
+        <v>328.9364636678057</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.8552397825761</v>
+        <v>450.0653812428888</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.7890554945712</v>
+        <v>407.1117729277966</v>
       </c>
       <c r="AD3" t="n">
-        <v>291508.8286220598</v>
+        <v>328936.4636678057</v>
       </c>
       <c r="AE3" t="n">
-        <v>398855.2397825761</v>
+        <v>450065.3812428888</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.417373756515589e-06</v>
+        <v>6.296280593614988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.637499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>360789.0554945712</v>
+        <v>407111.7729277966</v>
       </c>
     </row>
     <row r="4">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.4439620466483</v>
+        <v>287.4934426258659</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.9826747320226</v>
+        <v>393.361211516256</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.1036264769107</v>
+        <v>355.8193695750715</v>
       </c>
       <c r="AD4" t="n">
-        <v>259443.9620466483</v>
+        <v>287493.4426258659</v>
       </c>
       <c r="AE4" t="n">
-        <v>354982.6747320226</v>
+        <v>393361.211516256</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.695146622183531e-06</v>
+        <v>6.808058358690684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.137499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>321103.6264769107</v>
+        <v>355819.3695750715</v>
       </c>
     </row>
     <row r="5">
@@ -57061,28 +57061,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>234.374322869815</v>
+        <v>262.509054795056</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.6812884157051</v>
+        <v>359.1764698527425</v>
       </c>
       <c r="AC5" t="n">
-        <v>290.0759163284204</v>
+        <v>324.8971716773376</v>
       </c>
       <c r="AD5" t="n">
-        <v>234374.322869815</v>
+        <v>262509.054795056</v>
       </c>
       <c r="AE5" t="n">
-        <v>320681.2884157051</v>
+        <v>359176.4698527425</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.839013697229655e-06</v>
+        <v>7.073123738485917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.908333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>290075.9163284204</v>
+        <v>324897.1716773376</v>
       </c>
     </row>
     <row r="6">
@@ -57167,28 +57167,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.1616179432562</v>
+        <v>252.296349868494</v>
       </c>
       <c r="AB6" t="n">
-        <v>306.7078149824515</v>
+        <v>345.2029964193144</v>
       </c>
       <c r="AC6" t="n">
-        <v>277.436051587739</v>
+        <v>312.2573069366065</v>
       </c>
       <c r="AD6" t="n">
-        <v>224161.6179432562</v>
+        <v>252296.349868494</v>
       </c>
       <c r="AE6" t="n">
-        <v>306707.8149824515</v>
+        <v>345202.9964193144</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.927358859091122e-06</v>
+        <v>7.235893739018515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.774999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>277436.051587739</v>
+        <v>312257.3069366065</v>
       </c>
     </row>
     <row r="7">
@@ -57273,28 +57273,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>216.4278896957517</v>
+        <v>244.5626216209896</v>
       </c>
       <c r="AB7" t="n">
-        <v>296.1261868062107</v>
+        <v>334.6213682430737</v>
       </c>
       <c r="AC7" t="n">
-        <v>267.8643191532268</v>
+        <v>302.6855745020943</v>
       </c>
       <c r="AD7" t="n">
-        <v>216427.8896957517</v>
+        <v>244562.6216209896</v>
       </c>
       <c r="AE7" t="n">
-        <v>296126.1868062107</v>
+        <v>334621.3682430737</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.985166968701029e-06</v>
+        <v>7.342401280956667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.691666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>267864.3191532268</v>
+        <v>302685.5745020943</v>
       </c>
     </row>
     <row r="8">
@@ -57379,28 +57379,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>209.7821109604541</v>
+        <v>237.916842885692</v>
       </c>
       <c r="AB8" t="n">
-        <v>287.0331391495157</v>
+        <v>325.5283205863786</v>
       </c>
       <c r="AC8" t="n">
-        <v>259.6390992027113</v>
+        <v>294.4603545515788</v>
       </c>
       <c r="AD8" t="n">
-        <v>209782.1109604541</v>
+        <v>237916.842885692</v>
       </c>
       <c r="AE8" t="n">
-        <v>287033.1391495157</v>
+        <v>325528.3205863786</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.030564297716719e-06</v>
+        <v>7.426042796941996e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.627777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>259639.0992027114</v>
+        <v>294460.3545515788</v>
       </c>
     </row>
     <row r="9">
@@ -57485,28 +57485,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.4693608275484</v>
+        <v>234.6040927527862</v>
       </c>
       <c r="AB9" t="n">
-        <v>282.500488269455</v>
+        <v>320.995669706318</v>
       </c>
       <c r="AC9" t="n">
-        <v>255.5390381610268</v>
+        <v>290.3602935098942</v>
       </c>
       <c r="AD9" t="n">
-        <v>206469.3608275484</v>
+        <v>234604.0927527862</v>
       </c>
       <c r="AE9" t="n">
-        <v>282500.488269455</v>
+        <v>320995.669706318</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.050650166309992e-06</v>
+        <v>7.463049654734066e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.598611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>255539.0381610268</v>
+        <v>290360.2935098942</v>
       </c>
     </row>
     <row r="10">
@@ -57591,28 +57591,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>207.4776186011847</v>
+        <v>235.6123505264225</v>
       </c>
       <c r="AB10" t="n">
-        <v>283.8800310365373</v>
+        <v>322.3752124734002</v>
       </c>
       <c r="AC10" t="n">
-        <v>256.7869193026195</v>
+        <v>291.608174651487</v>
       </c>
       <c r="AD10" t="n">
-        <v>207477.6186011847</v>
+        <v>235612.3505264225</v>
       </c>
       <c r="AE10" t="n">
-        <v>283880.0310365373</v>
+        <v>322375.2124734002</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.04836396988474e-06</v>
+        <v>7.458837492058545e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.602777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>256786.9193026195</v>
+        <v>291608.174651487</v>
       </c>
     </row>
   </sheetData>
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.430223793137</v>
+        <v>703.9137936516283</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.7885477344882</v>
+        <v>963.1259069590191</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.2003073893397</v>
+        <v>871.2065221545498</v>
       </c>
       <c r="AD2" t="n">
-        <v>655430.223793137</v>
+        <v>703913.7936516283</v>
       </c>
       <c r="AE2" t="n">
-        <v>896788.5477344883</v>
+        <v>963125.906959019</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.164484246323515e-06</v>
+        <v>3.866693145718333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>811200.3073893398</v>
+        <v>871206.5221545498</v>
       </c>
     </row>
     <row r="3">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.3295835878224</v>
+        <v>396.4709658190806</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.596541702365</v>
+        <v>542.4690664982215</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.6294331609672</v>
+        <v>490.6965801517471</v>
       </c>
       <c r="AD3" t="n">
-        <v>367329.5835878224</v>
+        <v>396470.9658190805</v>
       </c>
       <c r="AE3" t="n">
-        <v>502596.541702365</v>
+        <v>542469.0664982215</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.087223989308386e-06</v>
+        <v>5.515100356600944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.073611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>454629.4331609672</v>
+        <v>490696.5801517471</v>
       </c>
     </row>
     <row r="4">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.4361467509776</v>
+        <v>338.4921881276642</v>
       </c>
       <c r="AB4" t="n">
-        <v>423.3841873440186</v>
+        <v>463.1399450176775</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.9769947273438</v>
+        <v>418.9385186861849</v>
       </c>
       <c r="AD4" t="n">
-        <v>309436.1467509776</v>
+        <v>338492.1881276642</v>
       </c>
       <c r="AE4" t="n">
-        <v>423384.1873440187</v>
+        <v>463139.9450176775</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.410945429213966e-06</v>
+        <v>6.093405084358193e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.401388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>382976.9947273438</v>
+        <v>418938.5186861849</v>
       </c>
     </row>
     <row r="5">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.5252894550223</v>
+        <v>317.5813308317089</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.7730298697771</v>
+        <v>434.528787543436</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.0964459664321</v>
+        <v>393.0579699252732</v>
       </c>
       <c r="AD5" t="n">
-        <v>288525.2894550224</v>
+        <v>317581.3308317089</v>
       </c>
       <c r="AE5" t="n">
-        <v>394773.0298697771</v>
+        <v>434528.7875434359</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.57382809640298e-06</v>
+        <v>6.384383082394379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.109722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>357096.4459664321</v>
+        <v>393057.9699252732</v>
       </c>
     </row>
     <row r="6">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.9027153016442</v>
+        <v>295.0440080243513</v>
       </c>
       <c r="AB6" t="n">
-        <v>363.8198258755915</v>
+        <v>403.6922282018995</v>
       </c>
       <c r="AC6" t="n">
-        <v>329.0973723183569</v>
+        <v>365.1644085279102</v>
       </c>
       <c r="AD6" t="n">
-        <v>265902.7153016442</v>
+        <v>295044.0080243513</v>
       </c>
       <c r="AE6" t="n">
-        <v>363819.8258755915</v>
+        <v>403692.2282018994</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.677909491846154e-06</v>
+        <v>6.57031689967233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>329097.3723183569</v>
+        <v>365164.4085279102</v>
       </c>
     </row>
     <row r="7">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>256.9595845953621</v>
+        <v>286.1008773180724</v>
       </c>
       <c r="AB7" t="n">
-        <v>351.5834399000088</v>
+        <v>391.4558422264874</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.028809846514</v>
+        <v>354.0958460561159</v>
       </c>
       <c r="AD7" t="n">
-        <v>256959.5845953621</v>
+        <v>286100.8773180724</v>
       </c>
       <c r="AE7" t="n">
-        <v>351583.4399000088</v>
+        <v>391455.8422264875</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.748502462471508e-06</v>
+        <v>6.696426089940908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.824999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>318028.809846514</v>
+        <v>354095.8460561159</v>
       </c>
     </row>
     <row r="8">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.657955249335</v>
+        <v>278.7992479720452</v>
       </c>
       <c r="AB8" t="n">
-        <v>341.5930285036273</v>
+        <v>381.4654308301008</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.9918692921694</v>
+        <v>345.0589055017699</v>
       </c>
       <c r="AD8" t="n">
-        <v>249657.955249335</v>
+        <v>278799.2479720452</v>
       </c>
       <c r="AE8" t="n">
-        <v>341593.0285036273</v>
+        <v>381465.4308301008</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.801329273451729e-06</v>
+        <v>6.79079733254724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.744444444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>308991.8692921695</v>
+        <v>345058.9055017699</v>
       </c>
     </row>
     <row r="9">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>244.5953708806969</v>
+        <v>273.7366636034071</v>
       </c>
       <c r="AB9" t="n">
-        <v>334.6661772250006</v>
+        <v>374.5385795514706</v>
       </c>
       <c r="AC9" t="n">
-        <v>302.7261069776759</v>
+        <v>338.7931431872753</v>
       </c>
       <c r="AD9" t="n">
-        <v>244595.3708806969</v>
+        <v>273736.663603407</v>
       </c>
       <c r="AE9" t="n">
-        <v>334666.1772250006</v>
+        <v>374538.5795514706</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.832773803797099e-06</v>
+        <v>6.846970691241484e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.697222222222223</v>
       </c>
       <c r="AH9" t="n">
-        <v>302726.1069776759</v>
+        <v>338793.1431872753</v>
       </c>
     </row>
     <row r="10">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>239.3703309715974</v>
+        <v>268.5116236943074</v>
       </c>
       <c r="AB10" t="n">
-        <v>327.5170471088822</v>
+        <v>367.3894494353485</v>
       </c>
       <c r="AC10" t="n">
-        <v>296.2592798059705</v>
+        <v>332.3263160155689</v>
       </c>
       <c r="AD10" t="n">
-        <v>239370.3309715974</v>
+        <v>268511.6236943075</v>
       </c>
       <c r="AE10" t="n">
-        <v>327517.0471088822</v>
+        <v>367389.4494353485</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.864532779445922e-06</v>
+        <v>6.903705783522672e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.65</v>
       </c>
       <c r="AH10" t="n">
-        <v>296259.2798059705</v>
+        <v>332326.3160155689</v>
       </c>
     </row>
     <row r="11">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>235.1652403640229</v>
+        <v>264.3065330867329</v>
       </c>
       <c r="AB11" t="n">
-        <v>321.7634566240971</v>
+        <v>361.6358589505604</v>
       </c>
       <c r="AC11" t="n">
-        <v>291.0548039218365</v>
+        <v>327.121840131434</v>
       </c>
       <c r="AD11" t="n">
-        <v>235165.2403640229</v>
+        <v>264306.5330867329</v>
       </c>
       <c r="AE11" t="n">
-        <v>321763.4566240971</v>
+        <v>361635.8589505604</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.885600614777319e-06</v>
+        <v>6.941341933847815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.619444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>291054.8039218365</v>
+        <v>327121.840131434</v>
       </c>
     </row>
     <row r="12">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>230.6883347039661</v>
+        <v>259.829627426676</v>
       </c>
       <c r="AB12" t="n">
-        <v>315.6379567928721</v>
+        <v>355.5103591193323</v>
       </c>
       <c r="AC12" t="n">
-        <v>285.5139131973086</v>
+        <v>321.5809494069052</v>
       </c>
       <c r="AD12" t="n">
-        <v>230688.3347039661</v>
+        <v>259829.627426676</v>
       </c>
       <c r="AE12" t="n">
-        <v>315637.9567928721</v>
+        <v>355510.3591193323</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.909184012536347e-06</v>
+        <v>6.983471952868499e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.586111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>285513.9131973086</v>
+        <v>321580.9494069052</v>
       </c>
     </row>
     <row r="13">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>228.7134173563388</v>
+        <v>257.8547100790456</v>
       </c>
       <c r="AB13" t="n">
-        <v>312.9357877506455</v>
+        <v>352.8081900769331</v>
       </c>
       <c r="AC13" t="n">
-        <v>283.0696353759532</v>
+        <v>319.1366715855007</v>
       </c>
       <c r="AD13" t="n">
-        <v>228713.4173563388</v>
+        <v>257854.7100790456</v>
       </c>
       <c r="AE13" t="n">
-        <v>312935.7877506455</v>
+        <v>352808.1900769331</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.911699574963976e-06</v>
+        <v>6.987965821564039e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.581944444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>283069.6353759532</v>
+        <v>319136.6715855007</v>
       </c>
     </row>
     <row r="14">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>229.1322587878487</v>
+        <v>258.2735515105587</v>
       </c>
       <c r="AB14" t="n">
-        <v>313.508865075217</v>
+        <v>353.381267401676</v>
       </c>
       <c r="AC14" t="n">
-        <v>283.5880190049868</v>
+        <v>319.6550552145831</v>
       </c>
       <c r="AD14" t="n">
-        <v>229132.2587878487</v>
+        <v>258273.5515105587</v>
       </c>
       <c r="AE14" t="n">
-        <v>313508.865075217</v>
+        <v>353381.267401676</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.916573477167508e-06</v>
+        <v>6.996672692161646e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.574999999999999</v>
       </c>
       <c r="AH14" t="n">
-        <v>283588.0190049869</v>
+        <v>319655.0552145831</v>
       </c>
     </row>
   </sheetData>
